--- a/Успеваемость_С-ИП-21-2.xlsx
+++ b/Успеваемость_С-ИП-21-2.xlsx
@@ -3,17 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>№</t>
   </si>
@@ -27,15 +28,15 @@
     <t>+</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t xml:space="preserve">Билык Юрий Алексеевич</t>
   </si>
   <si>
     <t xml:space="preserve">Бодрова Алина Денисовна</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Брылева Екатерина Андреевна</t>
   </si>
   <si>
@@ -76,12 +77,18 @@
   </si>
   <si>
     <t xml:space="preserve">Матвеев Сергей Дмитриевич</t>
+  </si>
+  <si>
+    <t>Доп</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="160" formatCode="dd/mmm"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <name val="Calibri"/>
@@ -91,12 +98,10 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <color indexed="64"/>
       <sz val="11.000000"/>
     </font>
     <font>
       <name val="Calibri"/>
-      <color indexed="64"/>
       <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
@@ -109,7 +114,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -119,16 +124,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -147,16 +152,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="2" numFmtId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -168,6 +189,12 @@
     </xf>
     <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="2" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -696,15 +723,17 @@
       <c r="C1" s="3">
         <v>44938</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="D1" s="4">
+        <v>44939</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
     </row>
     <row r="2" ht="14.25">
       <c r="A2" s="2">
@@ -716,75 +745,83 @@
       <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
+      <c r="D2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
     </row>
     <row r="3" ht="14.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+      <c r="D3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
     </row>
     <row r="4" ht="14.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
     </row>
     <row r="5" ht="14.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
+      <c r="D5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
     </row>
     <row r="6" ht="14.25">
       <c r="A6" s="2">
@@ -794,17 +831,19 @@
         <v>8</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
     </row>
     <row r="7" ht="14.25">
       <c r="A7" s="2">
@@ -816,35 +855,39 @@
       <c r="C7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+      <c r="D7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
     </row>
     <row r="8" ht="14.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
     </row>
     <row r="9" ht="14.25">
       <c r="A9" s="2">
@@ -854,17 +897,19 @@
         <v>11</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
     </row>
     <row r="10" ht="14.25">
       <c r="A10" s="2">
@@ -876,15 +921,17 @@
       <c r="C10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
+      <c r="D10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
     </row>
     <row r="11" ht="14.25">
       <c r="A11" s="2">
@@ -894,17 +941,19 @@
         <v>13</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
     </row>
     <row r="12" ht="14.25">
       <c r="A12" s="2">
@@ -916,15 +965,17 @@
       <c r="C12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
+      <c r="D12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
     </row>
     <row r="13" ht="14.25">
       <c r="A13" s="2">
@@ -936,15 +987,17 @@
       <c r="C13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
+      <c r="D13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
     </row>
     <row r="14" ht="14.25">
       <c r="A14" s="2">
@@ -956,35 +1009,39 @@
       <c r="C14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
+      <c r="D14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
     </row>
     <row r="15" ht="14.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
+      <c r="D15" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
     </row>
     <row r="16" ht="14.25">
       <c r="A16" s="2">
@@ -994,17 +1051,19 @@
         <v>18</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
     </row>
     <row r="17" ht="14.25">
       <c r="A17" s="2">
@@ -1016,15 +1075,17 @@
       <c r="C17" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
+      <c r="D17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
     </row>
     <row r="18" ht="14.25">
       <c r="A18" s="2">
@@ -1036,26 +1097,28 @@
       <c r="C18" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
+      <c r="D18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00A9001D-00F0-4C91-BA17-00F500F70034}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00D0002E-0049-4D0B-9BDF-00D300B6001B}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -1072,7 +1135,7 @@
           <xm:sqref>C2:L18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00B300A1-00FB-4551-8FDE-0014008500FD}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{002000DE-00BD-4247-85D4-00A800E20066}">
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -1089,7 +1152,423 @@
           <xm:sqref>C2:L18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00E000B0-0088-4E71-B1AA-005E00F7009B}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{009A0092-00F0-49C9-A2BF-00D300F300D6}">
+            <xm:f>"#"</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C5700"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFFFEB9C"/>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C2:L18</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col bestFit="1" min="1" max="1" width="2.8515625"/>
+    <col bestFit="1" min="2" max="2" width="38.28125"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="5">
+        <v>5</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="5">
+        <v>5</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="5">
+        <v>5</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="5">
+        <v>5</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="5">
+        <v>5</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{006D0063-0006-415C-86DA-00140028002B}">
+            <xm:f>"+"</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF006100"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFC6EFCE"/>
+                  <bgColor rgb="FFC6EFCE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C2:L18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{008C0082-00C3-463E-BBE8-00000025005A}">
+            <xm:f>"-"</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFFFC7CE"/>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C2:L18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{002D00B2-0011-41A1-97AA-00810073000A}">
             <xm:f>"#"</xm:f>
             <x14:dxf>
               <font>

--- a/Успеваемость_С-ИП-21-2.xlsx
+++ b/Успеваемость_С-ИП-21-2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
@@ -723,11 +723,15 @@
       <c r="C1" s="3">
         <v>44938</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="3">
         <v>44939</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="E1" s="3">
+        <v>44946</v>
+      </c>
+      <c r="F1" s="4">
+        <v>44949</v>
+      </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
@@ -745,11 +749,15 @@
       <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -767,11 +775,15 @@
       <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="D3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -789,11 +801,15 @@
       <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -811,11 +827,15 @@
       <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -833,11 +853,15 @@
       <c r="C6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -855,11 +879,15 @@
       <c r="C7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -877,11 +905,15 @@
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -899,11 +931,15 @@
       <c r="C9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -921,11 +957,15 @@
       <c r="C10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -943,11 +983,15 @@
       <c r="C11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -965,11 +1009,15 @@
       <c r="C12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -987,11 +1035,15 @@
       <c r="C13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
@@ -1009,11 +1061,15 @@
       <c r="C14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -1031,11 +1087,15 @@
       <c r="C15" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -1053,11 +1113,15 @@
       <c r="C16" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
@@ -1075,11 +1139,15 @@
       <c r="C17" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -1097,11 +1165,15 @@
       <c r="C18" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="D18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -1118,7 +1190,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00D0002E-0049-4D0B-9BDF-00D300B6001B}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{004A0054-0054-49DC-A612-00CB003D00BB}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -1135,7 +1207,7 @@
           <xm:sqref>C2:L18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{002000DE-00BD-4247-85D4-00A800E20066}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{001D0012-0005-46ED-AA72-00EC00F100F7}">
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -1152,7 +1224,7 @@
           <xm:sqref>C2:L18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{009A0092-00F0-49C9-A2BF-00D300F300D6}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00F70020-0047-4E40-AB0A-003700D900D5}">
             <xm:f>"#"</xm:f>
             <x14:dxf>
               <font>
@@ -1181,7 +1253,7 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col bestFit="1" min="1" max="1" width="2.8515625"/>
     <col bestFit="1" min="2" max="2" width="38.28125"/>
@@ -1197,7 +1269,9 @@
       <c r="C1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="5"/>
+      <c r="D1" s="5">
+        <v>1</v>
+      </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -1271,7 +1345,9 @@
       <c r="C5" s="5">
         <v>5</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="5">
+        <v>10</v>
+      </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -1343,7 +1419,9 @@
         <v>11</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="D9" s="5">
+        <v>6</v>
+      </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -1479,7 +1557,9 @@
         <v>18</v>
       </c>
       <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
+      <c r="D16" s="5">
+        <v>6</v>
+      </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -1528,13 +1608,13 @@
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{006D0063-0006-415C-86DA-00140028002B}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{008D0015-0013-46AB-ABB9-008B002A00C0}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -1551,7 +1631,7 @@
           <xm:sqref>C2:L18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{008C0082-00C3-463E-BBE8-00000025005A}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00170060-00C4-4D3B-A3A9-005B003E001C}">
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -1568,7 +1648,7 @@
           <xm:sqref>C2:L18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{002D00B2-0011-41A1-97AA-00810073000A}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00D300C1-0099-49B0-ABC4-002F001100BE}">
             <xm:f>"#"</xm:f>
             <x14:dxf>
               <font>

--- a/Успеваемость_С-ИП-21-2.xlsx
+++ b/Успеваемость_С-ИП-21-2.xlsx
@@ -729,10 +729,12 @@
       <c r="E1" s="3">
         <v>44946</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="3">
         <v>44949</v>
       </c>
-      <c r="G1" s="5"/>
+      <c r="G1" s="4">
+        <v>44952</v>
+      </c>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
@@ -755,10 +757,12 @@
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="5"/>
+      <c r="F2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
@@ -781,10 +785,12 @@
       <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
@@ -807,10 +813,12 @@
       <c r="E4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
@@ -833,10 +841,12 @@
       <c r="E5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -859,10 +869,12 @@
       <c r="E6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -885,10 +897,12 @@
       <c r="E7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
@@ -911,10 +925,12 @@
       <c r="E8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
@@ -937,10 +953,12 @@
       <c r="E9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
@@ -963,10 +981,12 @@
       <c r="E10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -989,10 +1009,12 @@
       <c r="E11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -1015,10 +1037,12 @@
       <c r="E12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
@@ -1041,10 +1065,12 @@
       <c r="E13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="5"/>
+      <c r="F13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
@@ -1067,10 +1093,12 @@
       <c r="E14" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="5"/>
+      <c r="F14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -1093,10 +1121,12 @@
       <c r="E15" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="5"/>
+      <c r="F15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -1119,10 +1149,12 @@
       <c r="E16" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -1145,10 +1177,12 @@
       <c r="E17" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="5"/>
+      <c r="F17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -1171,10 +1205,12 @@
       <c r="E18" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="5"/>
+      <c r="F18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -1190,7 +1226,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{004A0054-0054-49DC-A612-00CB003D00BB}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{004400FA-0054-40B7-9742-00D5006600A9}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -1207,7 +1243,7 @@
           <xm:sqref>C2:L18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{001D0012-0005-46ED-AA72-00EC00F100F7}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00DC00A1-00C6-42A0-96E3-002700F300A5}">
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -1224,7 +1260,7 @@
           <xm:sqref>C2:L18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00F70020-0047-4E40-AB0A-003700D900D5}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{007500B9-00B3-49F1-B6A0-007400B900B5}">
             <xm:f>"#"</xm:f>
             <x14:dxf>
               <font>
@@ -1614,7 +1650,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{008D0015-0013-46AB-ABB9-008B002A00C0}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00CF0082-0087-44B1-BBFB-0015006E00C7}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -1631,7 +1667,7 @@
           <xm:sqref>C2:L18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00170060-00C4-4D3B-A3A9-005B003E001C}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{000D0071-00EF-4B7C-A392-005200D1001A}">
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -1648,7 +1684,7 @@
           <xm:sqref>C2:L18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00D300C1-0099-49B0-ABC4-002F001100BE}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{003600AC-005F-4200-9BAE-00EA002200C6}">
             <xm:f>"#"</xm:f>
             <x14:dxf>
               <font>

--- a/Успеваемость_С-ИП-21-2.xlsx
+++ b/Успеваемость_С-ИП-21-2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26207"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="19" documentId="11_40A1A766543488399972A2223409E22EBD92A13E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C9A6E81-83A3-491C-B4B6-4AAC97BB4783}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="11_40A1A766543488399972A2223409E22EBD92A13E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E9B39B9-BE90-4F23-A26A-FE0F24075C7F}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="32">
   <si>
     <t>№</t>
   </si>
@@ -524,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -566,7 +566,9 @@
       <c r="J1" s="3">
         <v>44966</v>
       </c>
-      <c r="K1" s="4"/>
+      <c r="K1" s="3">
+        <v>44967</v>
+      </c>
       <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12">
@@ -600,7 +602,9 @@
       <c r="J2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="4"/>
+      <c r="K2" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12">
@@ -634,7 +638,9 @@
       <c r="J3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="4"/>
+      <c r="K3" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12">
@@ -668,7 +674,9 @@
       <c r="J4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="4"/>
+      <c r="K4" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:12">
@@ -702,7 +710,9 @@
       <c r="J5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="4"/>
+      <c r="K5" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:12">
@@ -736,7 +746,9 @@
       <c r="J6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="4"/>
+      <c r="K6" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12">
@@ -770,7 +782,9 @@
       <c r="J7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="4"/>
+      <c r="K7" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:12">
@@ -804,7 +818,9 @@
       <c r="J8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="4"/>
+      <c r="K8" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12">
@@ -838,7 +854,9 @@
       <c r="J9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="4"/>
+      <c r="K9" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:12">
@@ -872,7 +890,9 @@
       <c r="J10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="4"/>
+      <c r="K10" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12">
@@ -906,7 +926,9 @@
       <c r="J11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K11" s="4"/>
+      <c r="K11" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:12">
@@ -940,7 +962,9 @@
       <c r="J12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="4"/>
+      <c r="K12" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12">
@@ -974,7 +998,9 @@
       <c r="J13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K13" s="4"/>
+      <c r="K13" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12">
@@ -1008,7 +1034,9 @@
       <c r="J14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="4"/>
+      <c r="K14" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12">
@@ -1042,7 +1070,9 @@
       <c r="J15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="4"/>
+      <c r="K15" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12">
@@ -1076,7 +1106,9 @@
       <c r="J16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K16" s="4"/>
+      <c r="K16" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
@@ -1110,7 +1142,9 @@
       <c r="J17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K17" s="4"/>
+      <c r="K17" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
@@ -1144,7 +1178,9 @@
       <c r="J18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="4"/>
+      <c r="K18" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="L18" s="4"/>
     </row>
   </sheetData>
@@ -1172,8 +1208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1252,7 +1288,9 @@
       <c r="D3" s="4">
         <v>10</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4">
+        <v>10</v>
+      </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -1261,7 +1299,7 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1275,7 +1313,9 @@
       <c r="D4" s="4">
         <v>10</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4">
+        <v>10</v>
+      </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -1284,7 +1324,7 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1494,7 +1534,9 @@
       <c r="D13" s="4">
         <v>10</v>
       </c>
-      <c r="E13" s="4"/>
+      <c r="E13" s="4">
+        <v>10</v>
+      </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -1503,7 +1545,7 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:12">

--- a/Успеваемость_С-ИП-21-2.xlsx
+++ b/Успеваемость_С-ИП-21-2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26212"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="41" documentId="11_40A1A766543488399972A2223409E22EBD92A13E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E9B39B9-BE90-4F23-A26A-FE0F24075C7F}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="11_40A1A766543488399972A2223409E22EBD92A13E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4153D93-1FCE-419C-9686-917394000A2D}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="31">
   <si>
     <t>№</t>
   </si>
@@ -104,9 +104,6 @@
   </si>
   <si>
     <t>Trig</t>
-  </si>
-  <si>
-    <t>Cur</t>
   </si>
   <si>
     <t>pymsql</t>
@@ -131,7 +128,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,6 +141,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -211,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -228,6 +231,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -524,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -535,7 +541,7 @@
     <col min="3" max="12" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -569,7 +575,9 @@
       <c r="K1" s="3">
         <v>44967</v>
       </c>
-      <c r="L1" s="4"/>
+      <c r="L1" s="10">
+        <v>44974</v>
+      </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="2">
@@ -605,7 +613,9 @@
       <c r="K2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="4"/>
+      <c r="L2" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="2">
@@ -641,7 +651,9 @@
       <c r="K3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="4"/>
+      <c r="L3" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="2">
@@ -677,7 +689,9 @@
       <c r="K4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="4"/>
+      <c r="L4" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2">
@@ -713,7 +727,9 @@
       <c r="K5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="4"/>
+      <c r="L5" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2">
@@ -749,7 +765,9 @@
       <c r="K6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="4"/>
+      <c r="L6" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2">
@@ -785,7 +803,9 @@
       <c r="K7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="4"/>
+      <c r="L7" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2">
@@ -821,7 +841,9 @@
       <c r="K8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="4"/>
+      <c r="L8" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2">
@@ -857,7 +879,9 @@
       <c r="K9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="4"/>
+      <c r="L9" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="2">
@@ -893,7 +917,9 @@
       <c r="K10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="4"/>
+      <c r="L10" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="2">
@@ -929,7 +955,9 @@
       <c r="K11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L11" s="4"/>
+      <c r="L11" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="2">
@@ -965,7 +993,9 @@
       <c r="K12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="4"/>
+      <c r="L12" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="2">
@@ -1001,7 +1031,9 @@
       <c r="K13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L13" s="4"/>
+      <c r="L13" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="2">
@@ -1037,7 +1069,9 @@
       <c r="K14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="4"/>
+      <c r="L14" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="2">
@@ -1073,7 +1107,9 @@
       <c r="K15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="4"/>
+      <c r="L15" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="2">
@@ -1109,7 +1145,9 @@
       <c r="K16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L16" s="4"/>
+      <c r="L16" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="2">
@@ -1145,7 +1183,9 @@
       <c r="K17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L17" s="4"/>
+      <c r="L17" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="2">
@@ -1181,7 +1221,9 @@
       <c r="K18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L18" s="4"/>
+      <c r="L18" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:L18">
@@ -1208,8 +1250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1252,9 +1294,6 @@
       <c r="K1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="2">
@@ -1271,9 +1310,8 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4">
-        <f t="shared" ref="L2:L18" si="0">SUM(C2:K2)</f>
+      <c r="K2" s="4">
+        <f>SUM(C2:J2)</f>
         <v>0</v>
       </c>
     </row>
@@ -1296,9 +1334,8 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4">
-        <f t="shared" si="0"/>
+      <c r="K3" s="4">
+        <f>SUM(C3:J3)</f>
         <v>20</v>
       </c>
     </row>
@@ -1321,9 +1358,8 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4">
-        <f t="shared" si="0"/>
+      <c r="K4" s="4">
+        <f>SUM(C4:J4)</f>
         <v>20</v>
       </c>
     </row>
@@ -1343,15 +1379,19 @@
       <c r="E5" s="4">
         <v>10</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="4">
+        <v>10</v>
+      </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4">
-        <f t="shared" si="0"/>
-        <v>25</v>
+      <c r="K5" s="4">
+        <f>SUM(C5:J5)</f>
+        <v>35</v>
+      </c>
+      <c r="L5">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1373,9 +1413,8 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4">
-        <f t="shared" si="0"/>
+      <c r="K6" s="4">
+        <f>SUM(C6:J6)</f>
         <v>20</v>
       </c>
     </row>
@@ -1398,9 +1437,8 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4">
-        <f t="shared" si="0"/>
+      <c r="K7" s="4">
+        <f>SUM(C7:J7)</f>
         <v>20</v>
       </c>
     </row>
@@ -1419,9 +1457,8 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4">
-        <f t="shared" si="0"/>
+      <c r="K8" s="4">
+        <f>SUM(C8:J8)</f>
         <v>0</v>
       </c>
     </row>
@@ -1444,9 +1481,8 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4">
-        <f t="shared" si="0"/>
+      <c r="K9" s="4">
+        <f>SUM(C9:J9)</f>
         <v>20</v>
       </c>
     </row>
@@ -1469,9 +1505,8 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4">
-        <f t="shared" si="0"/>
+      <c r="K10" s="4">
+        <f>SUM(C10:J10)</f>
         <v>15</v>
       </c>
     </row>
@@ -1490,9 +1525,8 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4">
-        <f t="shared" si="0"/>
+      <c r="K11" s="4">
+        <f>SUM(C11:J11)</f>
         <v>0</v>
       </c>
     </row>
@@ -1515,9 +1549,8 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4">
-        <f t="shared" si="0"/>
+      <c r="K12" s="4">
+        <f>SUM(C12:J12)</f>
         <v>15</v>
       </c>
     </row>
@@ -1542,9 +1575,8 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4">
-        <f t="shared" si="0"/>
+      <c r="K13" s="4">
+        <f>SUM(C13:J13)</f>
         <v>25</v>
       </c>
     </row>
@@ -1567,9 +1599,8 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4">
-        <f t="shared" si="0"/>
+      <c r="K14" s="4">
+        <f>SUM(C14:J14)</f>
         <v>15</v>
       </c>
     </row>
@@ -1590,9 +1621,8 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4">
-        <f t="shared" si="0"/>
+      <c r="K15" s="4">
+        <f>SUM(C15:J15)</f>
         <v>5</v>
       </c>
     </row>
@@ -1615,13 +1645,12 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4">
-        <f t="shared" si="0"/>
+      <c r="K16" s="4">
+        <f>SUM(C16:J16)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:11">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1629,20 +1658,21 @@
         <v>20</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="D17" s="4">
+        <v>10</v>
+      </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="K17" s="4">
+        <f>SUM(C17:J17)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1653,30 +1683,31 @@
       <c r="D18" s="4">
         <v>10</v>
       </c>
-      <c r="E18" s="4"/>
+      <c r="E18" s="4">
+        <v>10</v>
+      </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4">
-        <f t="shared" si="0"/>
-        <v>10</v>
+      <c r="K18" s="4">
+        <f>SUM(C18:J18)</f>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:L18">
+  <conditionalFormatting sqref="C2:K18">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"+"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:L18">
+  <conditionalFormatting sqref="C2:K18">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:L18">
+  <conditionalFormatting sqref="C2:K18">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"#"</formula>
     </cfRule>

--- a/Успеваемость_С-ИП-21-2.xlsx
+++ b/Успеваемость_С-ИП-21-2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26212"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="68" documentId="11_40A1A766543488399972A2223409E22EBD92A13E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4153D93-1FCE-419C-9686-917394000A2D}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="11_40A1A766543488399972A2223409E22EBD92A13E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C00E699-BD62-4982-81CA-6DCD23B8E865}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -530,7 +530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
@@ -1250,8 +1250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1661,7 +1661,9 @@
       <c r="D17" s="4">
         <v>10</v>
       </c>
-      <c r="E17" s="4"/>
+      <c r="E17" s="4">
+        <v>6</v>
+      </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -1669,7 +1671,7 @@
       <c r="J17" s="4"/>
       <c r="K17" s="4">
         <f>SUM(C17:J17)</f>
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:11">

--- a/Успеваемость_С-ИП-21-2.xlsx
+++ b/Успеваемость_С-ИП-21-2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26228"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="69" documentId="11_40A1A766543488399972A2223409E22EBD92A13E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C00E699-BD62-4982-81CA-6DCD23B8E865}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="11_40A1A766543488399972A2223409E22EBD92A13E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD6DADCD-547C-4F73-8B48-71E42887D569}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1248,10 +1248,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1260,7 +1260,7 @@
     <col min="2" max="2" width="40.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:11">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:11">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:11">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:11">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="4">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D5" s="4">
         <v>10</v>
@@ -1388,13 +1388,10 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4">
         <f>SUM(C5:J5)</f>
-        <v>35</v>
-      </c>
-      <c r="L5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1418,7 +1415,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:11">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1442,7 +1439,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:11">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1462,7 +1459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:11">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1486,7 +1483,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:11">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1510,7 +1507,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:11">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1530,7 +1527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:11">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1544,17 +1541,19 @@
         <v>10</v>
       </c>
       <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="F12" s="4">
+        <v>10</v>
+      </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4">
         <f>SUM(C12:J12)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1580,7 +1579,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:11">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1604,7 +1603,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:11">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1626,7 +1625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:11">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1662,7 +1661,7 @@
         <v>10</v>
       </c>
       <c r="E17" s="4">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -1671,7 +1670,7 @@
       <c r="J17" s="4"/>
       <c r="K17" s="4">
         <f>SUM(C17:J17)</f>
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:11">

--- a/Успеваемость_С-ИП-21-2.xlsx
+++ b/Успеваемость_С-ИП-21-2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26306"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="73" documentId="11_40A1A766543488399972A2223409E22EBD92A13E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD6DADCD-547C-4F73-8B48-71E42887D569}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="11_40A1A766543488399972A2223409E22EBD92A13E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5402412B-1218-4F49-B6F8-277AC617601A}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -214,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -234,6 +234,7 @@
     <xf numFmtId="16" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -528,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -541,7 +542,7 @@
     <col min="3" max="12" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15">
+    <row r="1" spans="1:13" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -578,8 +579,11 @@
       <c r="L1" s="10">
         <v>44974</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="11">
+        <v>44994</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -616,8 +620,11 @@
       <c r="L2" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -654,8 +661,11 @@
       <c r="L3" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -692,8 +702,11 @@
       <c r="L4" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -730,8 +743,11 @@
       <c r="L5" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -768,8 +784,11 @@
       <c r="L6" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -806,8 +825,11 @@
       <c r="L7" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -844,8 +866,11 @@
       <c r="L8" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -882,8 +907,11 @@
       <c r="L9" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -920,8 +948,11 @@
       <c r="L10" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -958,8 +989,11 @@
       <c r="L11" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -996,8 +1030,11 @@
       <c r="L12" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1034,8 +1071,11 @@
       <c r="L13" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1072,8 +1112,11 @@
       <c r="L14" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1110,8 +1153,11 @@
       <c r="L15" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1148,8 +1194,11 @@
       <c r="L16" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1186,8 +1235,11 @@
       <c r="L17" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1223,6 +1275,9 @@
       </c>
       <c r="L18" s="4" t="s">
         <v>3</v>
+      </c>
+      <c r="M18">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1250,8 +1305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/Успеваемость_С-ИП-21-2.xlsx
+++ b/Успеваемость_С-ИП-21-2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26306"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="91" documentId="11_40A1A766543488399972A2223409E22EBD92A13E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5402412B-1218-4F49-B6F8-277AC617601A}"/>
+  <xr:revisionPtr revIDLastSave="124" documentId="11_40A1A766543488399972A2223409E22EBD92A13E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAC84FFF-ABC5-4D0C-8B55-A8FED40AEB31}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="34">
   <si>
     <t>№</t>
   </si>
@@ -122,6 +122,15 @@
   </si>
   <si>
     <t>Итог</t>
+  </si>
+  <si>
+    <t>15-25</t>
+  </si>
+  <si>
+    <t>25-35</t>
+  </si>
+  <si>
+    <t>35-40</t>
   </si>
 </sst>
 </file>
@@ -234,7 +243,9 @@
     <xf numFmtId="16" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -529,20 +540,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.85546875" bestFit="1"/>
     <col min="2" max="2" width="38.28515625" bestFit="1"/>
-    <col min="3" max="12" width="9.140625" style="1"/>
+    <col min="3" max="20" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15">
+    <row r="1" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -582,8 +593,11 @@
       <c r="M1" s="11">
         <v>44994</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="11">
+        <v>44995</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -620,11 +634,14 @@
       <c r="L2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2" s="1">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -661,11 +678,14 @@
       <c r="L3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="1">
         <v>-10</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3" s="1">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -702,11 +722,14 @@
       <c r="L4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -743,11 +766,14 @@
       <c r="L5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -784,11 +810,14 @@
       <c r="L6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="1">
         <v>-10</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6" s="1">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -825,11 +854,14 @@
       <c r="L7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -866,11 +898,14 @@
       <c r="L8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="1">
         <v>-10</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8" s="1">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -907,11 +942,14 @@
       <c r="L9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -948,11 +986,14 @@
       <c r="L10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="1">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -989,11 +1030,14 @@
       <c r="L11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="1">
         <v>-10</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="1">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1030,11 +1074,14 @@
       <c r="L12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1071,11 +1118,14 @@
       <c r="L13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1112,11 +1162,14 @@
       <c r="L14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="1">
         <v>-10</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1153,11 +1206,14 @@
       <c r="L15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="1">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1194,11 +1250,14 @@
       <c r="L16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="1">
         <v>-10</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16" s="1">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1235,11 +1294,14 @@
       <c r="L17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17" s="1">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1276,8 +1338,11 @@
       <c r="L18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="1">
         <v>15</v>
+      </c>
+      <c r="N18" s="1">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1303,9 +1368,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -1377,7 +1442,9 @@
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="4">
+        <v>15</v>
+      </c>
       <c r="D3" s="4">
         <v>10</v>
       </c>
@@ -1391,7 +1458,7 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4">
         <f>SUM(C3:J3)</f>
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1484,14 +1551,16 @@
       <c r="E7" s="4">
         <v>10</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="4">
+        <v>10</v>
+      </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4">
         <f>SUM(C7:J7)</f>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1528,14 +1597,16 @@
       <c r="E9" s="4">
         <v>10</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="4">
+        <v>10</v>
+      </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4">
         <f>SUM(C9:J9)</f>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1595,17 +1666,21 @@
       <c r="D12" s="4">
         <v>10</v>
       </c>
-      <c r="E12" s="4"/>
+      <c r="E12" s="4">
+        <v>10</v>
+      </c>
       <c r="F12" s="4">
         <v>10</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="G12" s="4">
+        <v>10</v>
+      </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4">
         <f>SUM(C12:J12)</f>
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1647,7 +1722,9 @@
       <c r="D14" s="4">
         <v>10</v>
       </c>
-      <c r="E14" s="4"/>
+      <c r="E14" s="4">
+        <v>10</v>
+      </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -1655,7 +1732,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4">
         <f>SUM(C14:J14)</f>
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1694,14 +1771,16 @@
       <c r="E16" s="4">
         <v>10</v>
       </c>
-      <c r="F16" s="4"/>
+      <c r="F16" s="4">
+        <v>10</v>
+      </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4">
         <f>SUM(C16:J16)</f>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1750,6 +1829,21 @@
       <c r="K18" s="4">
         <f>SUM(C18:J18)</f>
         <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="G23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="G24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="G25" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Успеваемость_С-ИП-21-2.xlsx
+++ b/Успеваемость_С-ИП-21-2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26306"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26312"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="124" documentId="11_40A1A766543488399972A2223409E22EBD92A13E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAC84FFF-ABC5-4D0C-8B55-A8FED40AEB31}"/>
+  <xr:revisionPtr revIDLastSave="151" documentId="11_40A1A766543488399972A2223409E22EBD92A13E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27E678C0-9538-4313-A6A9-C1BA08137CF4}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="28">
   <si>
     <t>№</t>
   </si>
@@ -112,25 +112,7 @@
     <t>ORM</t>
   </si>
   <si>
-    <t>mysql</t>
-  </si>
-  <si>
-    <t>mongo</t>
-  </si>
-  <si>
-    <t>redis</t>
-  </si>
-  <si>
     <t>Итог</t>
-  </si>
-  <si>
-    <t>15-25</t>
-  </si>
-  <si>
-    <t>25-35</t>
-  </si>
-  <si>
-    <t>35-40</t>
   </si>
 </sst>
 </file>
@@ -168,7 +150,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -219,11 +201,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -240,10 +250,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -542,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -553,7 +569,7 @@
     <col min="3" max="20" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:19">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -587,17 +603,26 @@
       <c r="K1" s="3">
         <v>44967</v>
       </c>
-      <c r="L1" s="10">
+      <c r="L1" s="12">
         <v>44974</v>
       </c>
-      <c r="M1" s="11">
+      <c r="M1" s="10">
+        <v>44988</v>
+      </c>
+      <c r="N1" s="10">
         <v>44994</v>
       </c>
-      <c r="N1" s="11">
+      <c r="O1" s="10">
         <v>44995</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="P1" s="10">
+        <v>45002</v>
+      </c>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -631,17 +656,26 @@
       <c r="K2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="1">
+      <c r="L2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="11">
+        <v>10</v>
+      </c>
+      <c r="N2" s="11">
         <v>15</v>
       </c>
-      <c r="N2" s="1">
+      <c r="O2" s="11">
         <v>-15</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="P2" s="11">
+        <v>-15</v>
+      </c>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -675,17 +709,26 @@
       <c r="K3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" s="1">
+      <c r="L3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="11">
+        <v>10</v>
+      </c>
+      <c r="N3" s="11">
         <v>-10</v>
       </c>
-      <c r="N3" s="1">
+      <c r="O3" s="11">
         <v>-15</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="P3" s="11">
+        <v>-15</v>
+      </c>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -719,17 +762,26 @@
       <c r="K4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M4" s="1">
+      <c r="L4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="11">
+        <v>10</v>
+      </c>
+      <c r="N4" s="11">
         <v>15</v>
       </c>
-      <c r="N4" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4" s="11">
+        <v>10</v>
+      </c>
+      <c r="P4" s="11">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -763,17 +815,26 @@
       <c r="K5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M5" s="1">
+      <c r="L5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="11">
+        <v>0</v>
+      </c>
+      <c r="N5" s="11">
         <v>15</v>
       </c>
-      <c r="N5" s="1">
+      <c r="O5" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="P5" s="11">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -807,17 +868,26 @@
       <c r="K6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="M6" s="1">
+      <c r="L6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="11">
+        <v>10</v>
+      </c>
+      <c r="N6" s="11">
         <v>-10</v>
       </c>
-      <c r="N6" s="1">
+      <c r="O6" s="11">
         <v>-15</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="P6" s="11">
+        <v>-15</v>
+      </c>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -851,17 +921,26 @@
       <c r="K7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="1">
+      <c r="L7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="11">
+        <v>10</v>
+      </c>
+      <c r="N7" s="11">
         <v>15</v>
       </c>
-      <c r="N7" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7" s="11">
+        <v>10</v>
+      </c>
+      <c r="P7" s="11">
+        <v>-15</v>
+      </c>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -895,17 +974,26 @@
       <c r="K8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="1">
+      <c r="L8" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="11">
+        <v>10</v>
+      </c>
+      <c r="N8" s="11">
         <v>-10</v>
       </c>
-      <c r="N8" s="1">
+      <c r="O8" s="11">
         <v>-15</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="P8" s="11">
+        <v>-15</v>
+      </c>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -939,17 +1027,26 @@
       <c r="K9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M9" s="1">
+      <c r="L9" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="11">
+        <v>10</v>
+      </c>
+      <c r="N9" s="11">
         <v>15</v>
       </c>
-      <c r="N9" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9" s="11">
+        <v>10</v>
+      </c>
+      <c r="P9" s="11">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -983,17 +1080,26 @@
       <c r="K10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M10" s="1">
+      <c r="L10" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="11">
+        <v>10</v>
+      </c>
+      <c r="N10" s="11">
         <v>15</v>
       </c>
-      <c r="N10" s="1">
+      <c r="O10" s="11">
         <v>-15</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="P10" s="11">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1027,17 +1133,26 @@
       <c r="K11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M11" s="1">
+      <c r="L11" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="M11" s="11">
+        <v>-15</v>
+      </c>
+      <c r="N11" s="11">
         <v>-10</v>
       </c>
-      <c r="N11" s="1">
+      <c r="O11" s="11">
         <v>-15</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="P11" s="11">
+        <v>-15</v>
+      </c>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1071,17 +1186,26 @@
       <c r="K12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M12" s="1">
+      <c r="L12" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="11">
+        <v>10</v>
+      </c>
+      <c r="N12" s="11">
         <v>15</v>
       </c>
-      <c r="N12" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12" s="11">
+        <v>10</v>
+      </c>
+      <c r="P12" s="11">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1115,17 +1239,26 @@
       <c r="K13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L13" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M13" s="1">
+      <c r="L13" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="M13" s="11">
+        <v>10</v>
+      </c>
+      <c r="N13" s="11">
         <v>15</v>
       </c>
-      <c r="N13" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13" s="11">
+        <v>10</v>
+      </c>
+      <c r="P13" s="11">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1159,17 +1292,26 @@
       <c r="K14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="1">
+      <c r="L14" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="11">
+        <v>-15</v>
+      </c>
+      <c r="N14" s="11">
         <v>-10</v>
       </c>
-      <c r="N14" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14" s="11">
+        <v>10</v>
+      </c>
+      <c r="P14" s="11">
+        <v>-15</v>
+      </c>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1203,17 +1345,26 @@
       <c r="K15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M15" s="1">
+      <c r="L15" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="11">
+        <v>10</v>
+      </c>
+      <c r="N15" s="11">
         <v>15</v>
       </c>
-      <c r="N15" s="1">
+      <c r="O15" s="11">
         <v>-15</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="P15" s="11">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1247,17 +1398,26 @@
       <c r="K16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L16" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M16" s="1">
+      <c r="L16" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="M16" s="11">
+        <v>10</v>
+      </c>
+      <c r="N16" s="11">
         <v>-10</v>
       </c>
-      <c r="N16" s="1">
+      <c r="O16" s="11">
         <v>-15</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="P16" s="11">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1291,17 +1451,26 @@
       <c r="K17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L17" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M17" s="1">
+      <c r="L17" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="11">
+        <v>10</v>
+      </c>
+      <c r="N17" s="11">
         <v>15</v>
       </c>
-      <c r="N17" s="1">
+      <c r="O17" s="11">
         <v>-15</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="P17" s="11">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1335,15 +1504,24 @@
       <c r="K18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L18" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18" s="1">
+      <c r="L18" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="11">
+        <v>10</v>
+      </c>
+      <c r="N18" s="11">
         <v>15</v>
       </c>
-      <c r="N18" s="1">
-        <v>10</v>
-      </c>
+      <c r="O18" s="11">
+        <v>10</v>
+      </c>
+      <c r="P18" s="11">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:L18">
@@ -1368,10 +1546,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1402,17 +1580,11 @@
       <c r="G1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1504,13 +1676,15 @@
       <c r="F5" s="4">
         <v>10</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="G5" s="4">
+        <v>10</v>
+      </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4">
         <f>SUM(C5:J5)</f>
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1829,21 +2003,6 @@
       <c r="K18" s="4">
         <f>SUM(C18:J18)</f>
         <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="G23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="G24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="G25" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Успеваемость_С-ИП-21-2.xlsx
+++ b/Успеваемость_С-ИП-21-2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>№</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>ORM</t>
+  </si>
+  <si>
+    <t>Install</t>
   </si>
   <si>
     <t>Итог</t>
@@ -135,7 +138,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -188,21 +191,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color auto="1"/>
       </left>
       <right/>
@@ -218,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -230,13 +218,10 @@
     <xf fontId="1" fillId="0" borderId="3" numFmtId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="4" numFmtId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="4" numFmtId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -247,9 +232,9 @@
     </xf>
     <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf fontId="3" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="5" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="2" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="3" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="2" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="3" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -817,11 +802,13 @@
       <c r="P1" s="5">
         <v>45002</v>
       </c>
-      <c r="Q1" s="6">
+      <c r="Q1" s="5">
         <v>45008</v>
       </c>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
+      <c r="R1" s="5">
+        <v>45009</v>
+      </c>
+      <c r="S1" s="6"/>
     </row>
     <row r="2">
       <c r="A2" s="2">
@@ -830,53 +817,55 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="7">
-        <v>10</v>
-      </c>
-      <c r="N2" s="7">
-        <v>15</v>
-      </c>
-      <c r="O2" s="7">
+      <c r="C2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="6">
+        <v>10</v>
+      </c>
+      <c r="N2" s="6">
+        <v>15</v>
+      </c>
+      <c r="O2" s="6">
         <v>-15</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2" s="6">
         <v>-15</v>
       </c>
-      <c r="Q2" s="7">
-        <v>15</v>
-      </c>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
+      <c r="Q2" s="6">
+        <v>15</v>
+      </c>
+      <c r="R2" s="6">
+        <v>10</v>
+      </c>
+      <c r="S2" s="6"/>
     </row>
     <row r="3">
       <c r="A3" s="2">
@@ -885,53 +874,55 @@
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" s="7">
-        <v>10</v>
-      </c>
-      <c r="N3" s="7">
+      <c r="C3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="6">
+        <v>10</v>
+      </c>
+      <c r="N3" s="6">
         <v>-10</v>
       </c>
-      <c r="O3" s="7">
+      <c r="O3" s="6">
         <v>-15</v>
       </c>
-      <c r="P3" s="7">
+      <c r="P3" s="6">
         <v>-15</v>
       </c>
-      <c r="Q3" s="7">
-        <v>15</v>
-      </c>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
+      <c r="Q3" s="6">
+        <v>15</v>
+      </c>
+      <c r="R3" s="6">
+        <v>10</v>
+      </c>
+      <c r="S3" s="6"/>
     </row>
     <row r="4">
       <c r="A4" s="2">
@@ -940,108 +931,112 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="M4" s="7">
-        <v>10</v>
-      </c>
-      <c r="N4" s="7">
-        <v>15</v>
-      </c>
-      <c r="O4" s="7">
-        <v>10</v>
-      </c>
-      <c r="P4" s="7">
-        <v>10</v>
-      </c>
-      <c r="Q4" s="7">
-        <v>15</v>
-      </c>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
+      <c r="C4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="6">
+        <v>10</v>
+      </c>
+      <c r="N4" s="6">
+        <v>15</v>
+      </c>
+      <c r="O4" s="6">
+        <v>10</v>
+      </c>
+      <c r="P4" s="6">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>15</v>
+      </c>
+      <c r="R4" s="6">
+        <v>10</v>
+      </c>
+      <c r="S4" s="6"/>
     </row>
     <row r="5">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="M5" s="7">
+      <c r="C5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="6">
         <v>0</v>
       </c>
-      <c r="N5" s="7">
-        <v>15</v>
-      </c>
-      <c r="O5" s="7">
+      <c r="N5" s="6">
+        <v>15</v>
+      </c>
+      <c r="O5" s="6">
         <v>0</v>
       </c>
-      <c r="P5" s="7">
-        <v>10</v>
-      </c>
-      <c r="Q5" s="7">
+      <c r="P5" s="6">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="6">
         <v>0</v>
       </c>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
+      <c r="R5" s="6">
+        <v>0</v>
+      </c>
+      <c r="S5" s="6"/>
     </row>
     <row r="6">
       <c r="A6" s="2">
@@ -1050,53 +1045,55 @@
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="M6" s="7">
-        <v>10</v>
-      </c>
-      <c r="N6" s="7">
+      <c r="C6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="6">
+        <v>10</v>
+      </c>
+      <c r="N6" s="6">
         <v>-10</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="6">
         <v>-15</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6" s="6">
         <v>-15</v>
       </c>
-      <c r="Q6" s="7">
-        <v>15</v>
-      </c>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
+      <c r="Q6" s="6">
+        <v>15</v>
+      </c>
+      <c r="R6" s="6">
+        <v>-15</v>
+      </c>
+      <c r="S6" s="6"/>
     </row>
     <row r="7">
       <c r="A7" s="2">
@@ -1105,108 +1102,112 @@
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="7">
-        <v>10</v>
-      </c>
-      <c r="N7" s="7">
-        <v>15</v>
-      </c>
-      <c r="O7" s="7">
-        <v>10</v>
-      </c>
-      <c r="P7" s="7">
+      <c r="C7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="6">
+        <v>10</v>
+      </c>
+      <c r="N7" s="6">
+        <v>15</v>
+      </c>
+      <c r="O7" s="6">
+        <v>10</v>
+      </c>
+      <c r="P7" s="6">
         <v>-15</v>
       </c>
-      <c r="Q7" s="7">
-        <v>15</v>
-      </c>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
+      <c r="Q7" s="6">
+        <v>15</v>
+      </c>
+      <c r="R7" s="6">
+        <v>-15</v>
+      </c>
+      <c r="S7" s="6"/>
     </row>
     <row r="8">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="7">
-        <v>10</v>
-      </c>
-      <c r="N8" s="7">
+      <c r="B8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="6">
+        <v>10</v>
+      </c>
+      <c r="N8" s="6">
         <v>-10</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="6">
         <v>-15</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8" s="6">
         <v>-15</v>
       </c>
-      <c r="Q8" s="7">
-        <v>15</v>
-      </c>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
+      <c r="Q8" s="6">
+        <v>15</v>
+      </c>
+      <c r="R8" s="6">
+        <v>10</v>
+      </c>
+      <c r="S8" s="6"/>
     </row>
     <row r="9">
       <c r="A9" s="2">
@@ -1215,53 +1216,55 @@
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="M9" s="7">
-        <v>10</v>
-      </c>
-      <c r="N9" s="7">
-        <v>15</v>
-      </c>
-      <c r="O9" s="7">
-        <v>10</v>
-      </c>
-      <c r="P9" s="7">
-        <v>10</v>
-      </c>
-      <c r="Q9" s="7">
-        <v>15</v>
-      </c>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="6">
+        <v>10</v>
+      </c>
+      <c r="N9" s="6">
+        <v>15</v>
+      </c>
+      <c r="O9" s="6">
+        <v>10</v>
+      </c>
+      <c r="P9" s="6">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>15</v>
+      </c>
+      <c r="R9" s="6">
+        <v>10</v>
+      </c>
+      <c r="S9" s="6"/>
     </row>
     <row r="10">
       <c r="A10" s="2">
@@ -1270,53 +1273,55 @@
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="M10" s="7">
-        <v>10</v>
-      </c>
-      <c r="N10" s="7">
-        <v>15</v>
-      </c>
-      <c r="O10" s="7">
+      <c r="C10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="6">
+        <v>10</v>
+      </c>
+      <c r="N10" s="6">
+        <v>15</v>
+      </c>
+      <c r="O10" s="6">
         <v>-15</v>
       </c>
-      <c r="P10" s="7">
-        <v>10</v>
-      </c>
-      <c r="Q10" s="7">
-        <v>15</v>
-      </c>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
+      <c r="P10" s="6">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>15</v>
+      </c>
+      <c r="R10" s="6">
+        <v>10</v>
+      </c>
+      <c r="S10" s="6"/>
     </row>
     <row r="11">
       <c r="A11" s="2">
@@ -1325,53 +1330,55 @@
       <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="M11" s="7">
+      <c r="C11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M11" s="6">
         <v>-15</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N11" s="6">
         <v>-10</v>
       </c>
-      <c r="O11" s="7">
+      <c r="O11" s="6">
         <v>-15</v>
       </c>
-      <c r="P11" s="7">
+      <c r="P11" s="6">
         <v>-15</v>
       </c>
-      <c r="Q11" s="7">
+      <c r="Q11" s="6">
         <v>-10</v>
       </c>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
+      <c r="R11" s="6">
+        <v>-15</v>
+      </c>
+      <c r="S11" s="6"/>
     </row>
     <row r="12">
       <c r="A12" s="2">
@@ -1380,53 +1387,55 @@
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="M12" s="7">
-        <v>10</v>
-      </c>
-      <c r="N12" s="7">
-        <v>15</v>
-      </c>
-      <c r="O12" s="7">
-        <v>10</v>
-      </c>
-      <c r="P12" s="7">
-        <v>10</v>
-      </c>
-      <c r="Q12" s="7">
+      <c r="C12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="6">
+        <v>10</v>
+      </c>
+      <c r="N12" s="6">
+        <v>15</v>
+      </c>
+      <c r="O12" s="6">
+        <v>10</v>
+      </c>
+      <c r="P12" s="6">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="6">
         <v>-10</v>
       </c>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
+      <c r="R12" s="6">
+        <v>10</v>
+      </c>
+      <c r="S12" s="6"/>
     </row>
     <row r="13">
       <c r="A13" s="2">
@@ -1435,53 +1444,55 @@
       <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="L13" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="M13" s="7">
-        <v>10</v>
-      </c>
-      <c r="N13" s="7">
-        <v>15</v>
-      </c>
-      <c r="O13" s="7">
-        <v>10</v>
-      </c>
-      <c r="P13" s="7">
-        <v>10</v>
-      </c>
-      <c r="Q13" s="7">
-        <v>15</v>
-      </c>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M13" s="6">
+        <v>10</v>
+      </c>
+      <c r="N13" s="6">
+        <v>15</v>
+      </c>
+      <c r="O13" s="6">
+        <v>10</v>
+      </c>
+      <c r="P13" s="6">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>15</v>
+      </c>
+      <c r="R13" s="6">
+        <v>10</v>
+      </c>
+      <c r="S13" s="6"/>
     </row>
     <row r="14">
       <c r="A14" s="2">
@@ -1490,108 +1501,112 @@
       <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="7">
+      <c r="C14" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="6">
         <v>-15</v>
       </c>
-      <c r="N14" s="7">
+      <c r="N14" s="6">
         <v>-10</v>
       </c>
-      <c r="O14" s="7">
-        <v>10</v>
-      </c>
-      <c r="P14" s="7">
+      <c r="O14" s="6">
+        <v>10</v>
+      </c>
+      <c r="P14" s="6">
         <v>-15</v>
       </c>
-      <c r="Q14" s="7">
-        <v>15</v>
-      </c>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
+      <c r="Q14" s="6">
+        <v>15</v>
+      </c>
+      <c r="R14" s="6">
+        <v>-15</v>
+      </c>
+      <c r="S14" s="6"/>
     </row>
     <row r="15">
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="L15" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="M15" s="7">
-        <v>10</v>
-      </c>
-      <c r="N15" s="7">
-        <v>15</v>
-      </c>
-      <c r="O15" s="7">
+      <c r="C15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="6">
+        <v>10</v>
+      </c>
+      <c r="N15" s="6">
+        <v>15</v>
+      </c>
+      <c r="O15" s="6">
         <v>-15</v>
       </c>
-      <c r="P15" s="7">
-        <v>10</v>
-      </c>
-      <c r="Q15" s="7">
-        <v>15</v>
-      </c>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
+      <c r="P15" s="6">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>15</v>
+      </c>
+      <c r="R15" s="6">
+        <v>10</v>
+      </c>
+      <c r="S15" s="6"/>
     </row>
     <row r="16">
       <c r="A16" s="2">
@@ -1600,53 +1615,55 @@
       <c r="B16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="L16" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="M16" s="7">
-        <v>10</v>
-      </c>
-      <c r="N16" s="7">
+      <c r="C16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M16" s="6">
+        <v>10</v>
+      </c>
+      <c r="N16" s="6">
         <v>-10</v>
       </c>
-      <c r="O16" s="7">
+      <c r="O16" s="6">
         <v>-15</v>
       </c>
-      <c r="P16" s="7">
-        <v>10</v>
-      </c>
-      <c r="Q16" s="7">
+      <c r="P16" s="6">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="6">
         <v>-10</v>
       </c>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
+      <c r="R16" s="6">
+        <v>10</v>
+      </c>
+      <c r="S16" s="6"/>
     </row>
     <row r="17">
       <c r="A17" s="2">
@@ -1655,53 +1672,55 @@
       <c r="B17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="L17" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="M17" s="7">
-        <v>10</v>
-      </c>
-      <c r="N17" s="7">
-        <v>15</v>
-      </c>
-      <c r="O17" s="7">
+      <c r="C17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="6">
+        <v>10</v>
+      </c>
+      <c r="N17" s="6">
+        <v>15</v>
+      </c>
+      <c r="O17" s="6">
         <v>-15</v>
       </c>
-      <c r="P17" s="7">
-        <v>10</v>
-      </c>
-      <c r="Q17" s="7">
-        <v>15</v>
-      </c>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
+      <c r="P17" s="6">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>15</v>
+      </c>
+      <c r="R17" s="6">
+        <v>0</v>
+      </c>
+      <c r="S17" s="6"/>
     </row>
     <row r="18">
       <c r="A18" s="2">
@@ -1710,53 +1729,55 @@
       <c r="B18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L18" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18" s="7">
-        <v>10</v>
-      </c>
-      <c r="N18" s="7">
-        <v>15</v>
-      </c>
-      <c r="O18" s="7">
-        <v>10</v>
-      </c>
-      <c r="P18" s="7">
-        <v>10</v>
-      </c>
-      <c r="Q18" s="7">
-        <v>15</v>
-      </c>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
+      <c r="C18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="6">
+        <v>10</v>
+      </c>
+      <c r="N18" s="6">
+        <v>15</v>
+      </c>
+      <c r="O18" s="6">
+        <v>10</v>
+      </c>
+      <c r="P18" s="6">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>15</v>
+      </c>
+      <c r="R18" s="6">
+        <v>10</v>
+      </c>
+      <c r="S18" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
@@ -1767,7 +1788,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00170039-000C-452F-B383-00B300FD0096}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{005C006A-00C4-4448-8A21-0035009100BE}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -1784,7 +1805,7 @@
           <xm:sqref>C2:L18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00ED0020-0085-4CEF-8FE6-00F800B6003E}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{006D00A2-0000-4844-B8F2-00D500E5004A}">
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -1801,7 +1822,7 @@
           <xm:sqref>C2:L18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00D000B4-00A5-4C9F-9AD2-005600880099}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{002500C9-00C3-475A-8EDC-002800130069}">
             <xm:f>"#"</xm:f>
             <x14:dxf>
               <font>
@@ -1840,73 +1861,81 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>27</v>
+      </c>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7">
+        <v>10</v>
+      </c>
+      <c r="E2" s="7">
+        <v>10</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7">
+        <v>10</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7">
         <f t="shared" ref="K2:K9" si="0">SUM(C2:J2)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="8">
-        <v>15</v>
-      </c>
-      <c r="D3" s="8">
-        <v>10</v>
-      </c>
-      <c r="E3" s="8">
-        <v>10</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8">
+      <c r="C3" s="7">
+        <v>15</v>
+      </c>
+      <c r="D3" s="7">
+        <v>10</v>
+      </c>
+      <c r="E3" s="7">
+        <v>10</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -1915,52 +1944,54 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8">
-        <v>10</v>
-      </c>
-      <c r="E4" s="8">
-        <v>10</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7">
+        <v>10</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7">
+        <v>10</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>20</v>
       </c>
-      <c r="D5" s="8">
-        <v>10</v>
-      </c>
-      <c r="E5" s="8">
-        <v>10</v>
-      </c>
-      <c r="F5" s="8">
-        <v>10</v>
-      </c>
-      <c r="G5" s="8">
-        <v>10</v>
-      </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8">
+      <c r="D5" s="7">
+        <v>10</v>
+      </c>
+      <c r="E5" s="7">
+        <v>10</v>
+      </c>
+      <c r="F5" s="7">
+        <v>10</v>
+      </c>
+      <c r="G5" s="7">
+        <v>10</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
@@ -1969,48 +2000,50 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8">
-        <v>10</v>
-      </c>
-      <c r="E6" s="8">
-        <v>10</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7">
+        <v>10</v>
+      </c>
+      <c r="E6" s="7">
+        <v>10</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7">
+        <v>10</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8">
-        <v>10</v>
-      </c>
-      <c r="E7" s="8">
-        <v>10</v>
-      </c>
-      <c r="F7" s="8">
-        <v>10</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7">
+        <v>10</v>
+      </c>
+      <c r="E7" s="7">
+        <v>10</v>
+      </c>
+      <c r="F7" s="7">
+        <v>10</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -2019,44 +2052,46 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8">
+      <c r="B8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7">
+        <v>10</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8">
-        <v>10</v>
-      </c>
-      <c r="E9" s="8">
-        <v>10</v>
-      </c>
-      <c r="F9" s="8">
-        <v>10</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7">
+        <v>10</v>
+      </c>
+      <c r="E9" s="7">
+        <v>10</v>
+      </c>
+      <c r="F9" s="7">
+        <v>10</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -2065,124 +2100,134 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>5</v>
       </c>
-      <c r="D10" s="8">
-        <v>10</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8">
+      <c r="D10" s="7">
+        <v>10</v>
+      </c>
+      <c r="E10" s="7">
+        <v>10</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7">
+        <v>10</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7">
         <f t="shared" ref="K10:K18" si="1">SUM(C10:J10)</f>
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7">
+        <v>10</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>5</v>
       </c>
-      <c r="D12" s="8">
-        <v>10</v>
-      </c>
-      <c r="E12" s="8">
-        <v>10</v>
-      </c>
-      <c r="F12" s="8">
-        <v>10</v>
-      </c>
-      <c r="G12" s="8">
-        <v>10</v>
-      </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8">
+      <c r="D12" s="7">
+        <v>10</v>
+      </c>
+      <c r="E12" s="7">
+        <v>10</v>
+      </c>
+      <c r="F12" s="7">
+        <v>10</v>
+      </c>
+      <c r="G12" s="7">
+        <v>10</v>
+      </c>
+      <c r="H12" s="7">
+        <v>10</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>5</v>
       </c>
-      <c r="D13" s="8">
-        <v>10</v>
-      </c>
-      <c r="E13" s="8">
-        <v>10</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8">
+      <c r="D13" s="7">
+        <v>10</v>
+      </c>
+      <c r="E13" s="7">
+        <v>10</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7">
+        <v>10</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>5</v>
       </c>
-      <c r="D14" s="8">
-        <v>10</v>
-      </c>
-      <c r="E14" s="8">
-        <v>10</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8">
+      <c r="D14" s="7">
+        <v>10</v>
+      </c>
+      <c r="E14" s="7">
+        <v>10</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
@@ -2191,20 +2236,20 @@
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <v>5</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8">
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -2213,24 +2258,24 @@
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8">
-        <v>10</v>
-      </c>
-      <c r="E16" s="8">
-        <v>10</v>
-      </c>
-      <c r="F16" s="8">
-        <v>10</v>
-      </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8">
+      <c r="C16" s="7"/>
+      <c r="D16" s="7">
+        <v>10</v>
+      </c>
+      <c r="E16" s="7">
+        <v>10</v>
+      </c>
+      <c r="F16" s="7">
+        <v>10</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
@@ -2239,46 +2284,48 @@
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8">
-        <v>10</v>
-      </c>
-      <c r="E17" s="8">
-        <v>10</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7">
+        <v>10</v>
+      </c>
+      <c r="E17" s="7">
+        <v>10</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7">
+        <v>10</v>
+      </c>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8">
-        <v>10</v>
-      </c>
-      <c r="E18" s="8">
-        <v>10</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8">
+      <c r="C18" s="7"/>
+      <c r="D18" s="7">
+        <v>10</v>
+      </c>
+      <c r="E18" s="7">
+        <v>10</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
@@ -2292,7 +2339,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00950083-00BE-4BA2-93F7-001100310094}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00D60044-00C1-49CE-B49E-001A004E0035}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -2309,7 +2356,7 @@
           <xm:sqref>C2:K18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00350010-0024-44B2-99EF-00230034002C}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00D300CD-0091-4D98-8BB9-00AB006B003C}">
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -2326,7 +2373,7 @@
           <xm:sqref>C2:K18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{004F0051-00AF-4E5C-BCB6-00B7005800F5}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00F600EF-002F-4AE3-8CF5-006C00630001}">
             <xm:f>"#"</xm:f>
             <x14:dxf>
               <font>

--- a/Успеваемость_С-ИП-21-2.xlsx
+++ b/Успеваемость_С-ИП-21-2.xlsx
@@ -1,32 +1,61 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/Работа/Колледж/GitHub/db-management-and-automation/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EDC038-6FA6-2944-ABB1-CF56C1C3F575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId4"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId5"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Аркадий Шнейдер</author>
   </authors>
   <commentList>
-    <comment ref="H8" authorId="0">
+    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
-            <color indexed="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Helvetica Neue"/>
           </rPr>
-          <t>Аркадий Шнейдер:
-Нет докера</t>
+          <t xml:space="preserve">Аркадий Шнейдер:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>Нет докера</t>
         </r>
       </text>
     </comment>
@@ -35,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="32">
   <si>
     <t>№</t>
   </si>
@@ -123,33 +152,31 @@
   <si>
     <t>Итог</t>
   </si>
+  <si>
+    <t>Безопасность</t>
+  </si>
+  <si>
+    <t>Резерв</t>
+  </si>
+  <si>
+    <t>Рейтинг</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="d.m"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d\.m"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -161,7 +188,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
@@ -185,7 +212,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -208,66 +235,95 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
       <font>
-        <color rgb="ff9c5700"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="12"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="12"/>
+          <bgColor indexed="15"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -278,7 +334,18 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="ff9c0006"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="12"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -289,18 +356,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="ff006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="12"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="ff9c5700"/>
+        <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -309,62 +365,89 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="ff9c0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="12"/>
-          <bgColor indexed="15"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="ff006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="12"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffdbdbdb"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="00000000"/>
-      <rgbColor rgb="ffffeb9c"/>
-      <rgbColor rgb="ff9c5700"/>
-      <rgbColor rgb="ffffc7ce"/>
-      <rgbColor rgb="ff9c0006"/>
-      <rgbColor rgb="ffc6efce"/>
-      <rgbColor rgb="ff006100"/>
+      <rgbColor rgb="FFFFEB9C"/>
+      <rgbColor rgb="FF9C5700"/>
+      <rgbColor rgb="FFFFC7CE"/>
+      <rgbColor rgb="FF9C0006"/>
+      <rgbColor rgb="FFC6EFCE"/>
+      <rgbColor rgb="FF006100"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -490,7 +573,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -499,7 +582,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -508,7 +591,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -582,7 +665,7 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -590,7 +673,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -608,7 +691,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -637,7 +720,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -662,7 +745,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -687,7 +770,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -712,7 +795,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -737,7 +820,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -762,7 +845,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -787,7 +870,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -812,7 +895,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -837,7 +920,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -850,9 +933,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -867,7 +956,7 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="38000"/>
             </a:srgbClr>
@@ -875,7 +964,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -893,7 +982,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -918,7 +1007,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -943,7 +1032,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -968,7 +1057,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -993,7 +1082,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1018,7 +1107,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1043,7 +1132,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1068,7 +1157,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1093,7 +1182,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1118,7 +1207,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1131,9 +1220,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1147,7 +1242,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1165,7 +1260,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1194,7 +1289,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1219,7 +1314,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1244,7 +1339,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1269,7 +1364,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1294,7 +1389,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1319,7 +1414,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1344,7 +1439,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1369,7 +1464,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1394,7 +1489,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1407,37 +1502,46 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:T18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Y18"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="C1" xSplit="2" ySplit="0" activePane="topRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="166" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.85156" style="1" customWidth="1"/>
-    <col min="2" max="2" width="38.3516" style="1" customWidth="1"/>
-    <col min="3" max="20" width="9.17188" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" style="1" customWidth="1"/>
+    <col min="3" max="20" width="9.1640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="8.83203125" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.55" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3">
@@ -1491,45 +1595,54 @@
       <c r="S1" s="5">
         <v>45019</v>
       </c>
-      <c r="T1" s="5">
+      <c r="T1" s="14">
         <v>45022</v>
       </c>
-    </row>
-    <row r="2" ht="13.55" customHeight="1">
+      <c r="U1" s="17">
+        <v>45023</v>
+      </c>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y1" s="16"/>
+    </row>
+    <row r="2" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="H2" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="I2" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="J2" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="K2" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="L2" t="s" s="7">
+      <c r="C2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="M2" s="8">
@@ -1553,45 +1666,55 @@
       <c r="S2" s="8">
         <v>-15</v>
       </c>
-      <c r="T2" s="8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" ht="13.55" customHeight="1">
+      <c r="T2" s="15">
+        <v>15</v>
+      </c>
+      <c r="U2" s="16">
+        <v>0</v>
+      </c>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16">
+        <f>SUM(M2:W2)</f>
+        <v>20</v>
+      </c>
+      <c r="Y2" s="16"/>
+    </row>
+    <row r="3" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="H3" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="I3" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="J3" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="K3" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="L3" t="s" s="7">
+      <c r="C3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="M3" s="8">
@@ -1615,45 +1738,55 @@
       <c r="S3" s="8">
         <v>0</v>
       </c>
-      <c r="T3" s="8">
+      <c r="T3" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" ht="13.55" customHeight="1">
+      <c r="U3" s="16">
+        <v>0</v>
+      </c>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16">
+        <f t="shared" ref="X3:X18" si="0">SUM(M3:W3)</f>
+        <v>-5</v>
+      </c>
+      <c r="Y3" s="16"/>
+    </row>
+    <row r="4" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="G4" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="H4" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="I4" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="J4" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="K4" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="L4" t="s" s="7">
+      <c r="C4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="M4" s="8">
@@ -1677,45 +1810,55 @@
       <c r="S4" s="8">
         <v>10</v>
       </c>
-      <c r="T4" s="8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" ht="13.55" customHeight="1">
+      <c r="T4" s="15">
+        <v>15</v>
+      </c>
+      <c r="U4" s="16">
+        <v>10</v>
+      </c>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="Y4" s="16"/>
+    </row>
+    <row r="5" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="F5" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="G5" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="H5" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="I5" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="J5" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="K5" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="L5" t="s" s="7">
+      <c r="C5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="M5" s="8">
@@ -1739,45 +1882,55 @@
       <c r="S5" s="8">
         <v>-15</v>
       </c>
-      <c r="T5" s="8">
+      <c r="T5" s="15">
         <v>-10</v>
       </c>
-    </row>
-    <row r="6" ht="13.55" customHeight="1">
+      <c r="U5" s="16">
+        <v>-15</v>
+      </c>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16">
+        <f t="shared" si="0"/>
+        <v>-15</v>
+      </c>
+      <c r="Y5" s="16"/>
+    </row>
+    <row r="6" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" t="s" s="2">
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="F6" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="G6" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="H6" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="I6" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="J6" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="K6" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="L6" t="s" s="7">
+      <c r="C6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>4</v>
       </c>
       <c r="M6" s="8">
@@ -1801,45 +1954,55 @@
       <c r="S6" s="8">
         <v>-15</v>
       </c>
-      <c r="T6" s="8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" ht="13.55" customHeight="1">
+      <c r="T6" s="15">
+        <v>15</v>
+      </c>
+      <c r="U6" s="16">
+        <v>10</v>
+      </c>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+      <c r="Y6" s="16"/>
+    </row>
+    <row r="7" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" t="s" s="2">
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="F7" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="G7" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="H7" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="I7" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="J7" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="K7" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="L7" t="s" s="7">
+      <c r="C7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>3</v>
       </c>
       <c r="M7" s="8">
@@ -1863,45 +2026,55 @@
       <c r="S7" s="8">
         <v>10</v>
       </c>
-      <c r="T7" s="8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" ht="13.55" customHeight="1">
+      <c r="T7" s="15">
+        <v>15</v>
+      </c>
+      <c r="U7" s="16">
+        <v>-15</v>
+      </c>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="Y7" s="16"/>
+    </row>
+    <row r="8" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="E8" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="F8" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="G8" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="H8" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="I8" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="J8" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="K8" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="L8" t="s" s="7">
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>3</v>
       </c>
       <c r="M8" s="8">
@@ -1925,45 +2098,55 @@
       <c r="S8" s="8">
         <v>-15</v>
       </c>
-      <c r="T8" s="8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" ht="13.55" customHeight="1">
+      <c r="T8" s="15">
+        <v>15</v>
+      </c>
+      <c r="U8" s="16">
+        <v>10</v>
+      </c>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="Y8" s="16"/>
+    </row>
+    <row r="9" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="E9" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="F9" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="G9" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="H9" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="I9" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="J9" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="K9" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="L9" t="s" s="7">
+      <c r="C9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>3</v>
       </c>
       <c r="M9" s="8">
@@ -1987,45 +2170,55 @@
       <c r="S9" s="8">
         <v>0</v>
       </c>
-      <c r="T9" s="8">
+      <c r="T9" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" ht="13.55" customHeight="1">
+      <c r="U9" s="16">
+        <v>0</v>
+      </c>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="Y9" s="16"/>
+    </row>
+    <row r="10" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C10" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="E10" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="F10" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="G10" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="H10" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="I10" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="J10" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="K10" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="L10" t="s" s="7">
+      <c r="C10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>3</v>
       </c>
       <c r="M10" s="8">
@@ -2049,45 +2242,55 @@
       <c r="S10" s="8">
         <v>-15</v>
       </c>
-      <c r="T10" s="8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" ht="13.55" customHeight="1">
+      <c r="T10" s="15">
+        <v>15</v>
+      </c>
+      <c r="U10" s="16">
+        <v>10</v>
+      </c>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="Y10" s="16"/>
+    </row>
+    <row r="11" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" t="s" s="2">
+      <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C11" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="E11" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="F11" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="G11" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="H11" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="I11" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="J11" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="K11" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="L11" t="s" s="7">
+      <c r="C11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>3</v>
       </c>
       <c r="M11" s="8">
@@ -2111,45 +2314,55 @@
       <c r="S11" s="8">
         <v>-15</v>
       </c>
-      <c r="T11" s="8">
+      <c r="T11" s="15">
         <v>-10</v>
       </c>
-    </row>
-    <row r="12" ht="13.55" customHeight="1">
+      <c r="U11" s="16">
+        <v>-15</v>
+      </c>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16">
+        <f t="shared" si="0"/>
+        <v>-120</v>
+      </c>
+      <c r="Y11" s="16"/>
+    </row>
+    <row r="12" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" t="s" s="2">
+      <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C12" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="E12" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="F12" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G12" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="H12" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="I12" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="J12" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="K12" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="L12" t="s" s="7">
+      <c r="C12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>3</v>
       </c>
       <c r="M12" s="8">
@@ -2173,45 +2386,55 @@
       <c r="S12" s="8">
         <v>10</v>
       </c>
-      <c r="T12" s="8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" ht="13.55" customHeight="1">
+      <c r="T12" s="15">
+        <v>15</v>
+      </c>
+      <c r="U12" s="16">
+        <v>-15</v>
+      </c>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="Y12" s="16"/>
+    </row>
+    <row r="13" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" t="s" s="2">
+      <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C13" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="E13" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="F13" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="G13" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="H13" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="I13" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="J13" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="K13" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="L13" t="s" s="7">
+      <c r="C13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>3</v>
       </c>
       <c r="M13" s="8">
@@ -2235,45 +2458,55 @@
       <c r="S13" s="8">
         <v>10</v>
       </c>
-      <c r="T13" s="8">
+      <c r="T13" s="15">
         <v>-10</v>
       </c>
-    </row>
-    <row r="14" ht="13.55" customHeight="1">
+      <c r="U13" s="16">
+        <v>10</v>
+      </c>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="Y13" s="16"/>
+    </row>
+    <row r="14" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" t="s" s="2">
+      <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C14" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="D14" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="E14" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="F14" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="G14" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="H14" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="I14" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="J14" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="K14" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="L14" t="s" s="7">
+      <c r="C14" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>4</v>
       </c>
       <c r="M14" s="8">
@@ -2297,45 +2530,55 @@
       <c r="S14" s="8">
         <v>10</v>
       </c>
-      <c r="T14" s="8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" ht="13.55" customHeight="1">
+      <c r="T14" s="15">
+        <v>15</v>
+      </c>
+      <c r="U14" s="16">
+        <v>-15</v>
+      </c>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="16">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+      <c r="Y14" s="16"/>
+    </row>
+    <row r="15" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C15" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="D15" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="E15" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="F15" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="G15" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="H15" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="I15" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="J15" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="K15" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="L15" t="s" s="7">
+      <c r="C15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>3</v>
       </c>
       <c r="M15" s="8">
@@ -2359,45 +2602,55 @@
       <c r="S15" s="8">
         <v>-15</v>
       </c>
-      <c r="T15" s="8">
+      <c r="T15" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" ht="13.55" customHeight="1">
+      <c r="U15" s="16">
+        <v>0</v>
+      </c>
+      <c r="V15" s="16"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="16">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="Y15" s="16"/>
+    </row>
+    <row r="16" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" t="s" s="2">
+      <c r="B16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C16" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="E16" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="F16" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="G16" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="H16" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="I16" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="J16" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="K16" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="L16" t="s" s="7">
+      <c r="C16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>3</v>
       </c>
       <c r="M16" s="8">
@@ -2421,45 +2674,55 @@
       <c r="S16" s="8">
         <v>0</v>
       </c>
-      <c r="T16" s="8">
+      <c r="T16" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" ht="13.55" customHeight="1">
+      <c r="U16" s="16">
+        <v>0</v>
+      </c>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="16">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="Y16" s="16"/>
+    </row>
+    <row r="17" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" t="s" s="2">
+      <c r="B17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C17" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="D17" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="E17" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="F17" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="G17" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="H17" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="I17" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="J17" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="K17" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="L17" t="s" s="7">
+      <c r="C17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>3</v>
       </c>
       <c r="M17" s="8">
@@ -2483,45 +2746,55 @@
       <c r="S17" s="8">
         <v>-15</v>
       </c>
-      <c r="T17" s="8">
+      <c r="T17" s="15">
         <v>-10</v>
       </c>
-    </row>
-    <row r="18" ht="13.55" customHeight="1">
+      <c r="U17" s="16">
+        <v>10</v>
+      </c>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="Y17" s="16"/>
+    </row>
+    <row r="18" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" t="s" s="2">
+      <c r="B18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C18" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="D18" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="E18" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="F18" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="G18" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="H18" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="I18" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="J18" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="K18" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="L18" t="s" s="7">
+      <c r="C18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>3</v>
       </c>
       <c r="M18" s="8">
@@ -2545,24 +2818,34 @@
       <c r="S18" s="8">
         <v>10</v>
       </c>
-      <c r="T18" s="8">
-        <v>15</v>
-      </c>
+      <c r="T18" s="15">
+        <v>15</v>
+      </c>
+      <c r="U18" s="16">
+        <v>10</v>
+      </c>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="16">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="Y18" s="16"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:L18">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
       <formula>"#"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
       <formula>"+"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.700787" right="0.700787" top="0.751969" bottom="0.751969" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.70078700000000005" right="0.70078700000000005" top="0.751969" bottom="0.751969" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2570,514 +2853,529 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" zoomScale="178" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.85156" style="9" customWidth="1"/>
-    <col min="2" max="2" width="40.5" style="9" customWidth="1"/>
-    <col min="3" max="11" width="8.85156" style="9" customWidth="1"/>
-    <col min="12" max="16384" width="8.85156" style="9" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5" style="1" customWidth="1"/>
+    <col min="3" max="8" width="8.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="8.83203125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.55" customHeight="1">
-      <c r="A1" t="s" s="10">
+    <row r="1" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="10">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="11">
+      <c r="C1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s" s="11">
+      <c r="D1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s" s="11">
+      <c r="E1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F1" t="s" s="11">
+      <c r="F1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G1" t="s" s="11">
+      <c r="G1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H1" t="s" s="11">
+      <c r="H1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" t="s" s="11">
+      <c r="I1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" s="13">
+    <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="10">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="14">
-        <v>10</v>
-      </c>
-      <c r="E2" s="14">
-        <v>10</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="14">
-        <v>10</v>
-      </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="14">
-        <f>SUM(C2:J2)</f>
+      <c r="C2" s="11"/>
+      <c r="D2" s="13">
+        <v>10</v>
+      </c>
+      <c r="E2" s="13">
+        <v>10</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="13">
+        <v>10</v>
+      </c>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="13">
+        <f t="shared" ref="K2:K18" si="0">SUM(C2:J2)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" s="13">
+    <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="10">
+      <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="14">
-        <v>15</v>
-      </c>
-      <c r="D3" s="14">
-        <v>10</v>
-      </c>
-      <c r="E3" s="14">
-        <v>10</v>
-      </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="14">
-        <f>SUM(C3:J3)</f>
+      <c r="C3" s="13">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" s="13">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s" s="10">
+      <c r="D3" s="13">
+        <v>10</v>
+      </c>
+      <c r="E3" s="13">
+        <v>10</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="13">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="14">
-        <v>10</v>
-      </c>
-      <c r="E4" s="14">
-        <v>10</v>
-      </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="14">
-        <v>10</v>
-      </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="14">
-        <f>SUM(C4:J4)</f>
+      <c r="C4" s="11"/>
+      <c r="D4" s="13">
+        <v>10</v>
+      </c>
+      <c r="E4" s="13">
+        <v>10</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="13">
+        <v>10</v>
+      </c>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="13">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" s="13">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s" s="10">
+    <row r="5" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="12">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="13">
         <v>20</v>
       </c>
-      <c r="D5" s="14">
-        <v>10</v>
-      </c>
-      <c r="E5" s="14">
-        <v>10</v>
-      </c>
-      <c r="F5" s="14">
-        <v>10</v>
-      </c>
-      <c r="G5" s="14">
-        <v>10</v>
-      </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="14">
-        <f>SUM(C5:J5)</f>
+      <c r="D5" s="13">
+        <v>10</v>
+      </c>
+      <c r="E5" s="13">
+        <v>10</v>
+      </c>
+      <c r="F5" s="13">
+        <v>10</v>
+      </c>
+      <c r="G5" s="13">
+        <v>10</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="13">
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
-    <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="13">
+    <row r="6" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" t="s" s="10">
+      <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="14">
-        <v>10</v>
-      </c>
-      <c r="E6" s="14">
-        <v>10</v>
-      </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="14">
-        <v>10</v>
-      </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="14">
-        <f>SUM(C6:J6)</f>
+      <c r="C6" s="11"/>
+      <c r="D6" s="13">
+        <v>10</v>
+      </c>
+      <c r="E6" s="13">
+        <v>10</v>
+      </c>
+      <c r="F6" s="11">
+        <v>10</v>
+      </c>
+      <c r="G6" s="11">
+        <v>10</v>
+      </c>
+      <c r="H6" s="13">
+        <v>10</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="13">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="12">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="13">
+        <v>10</v>
+      </c>
+      <c r="E7" s="13">
+        <v>10</v>
+      </c>
+      <c r="F7" s="13">
+        <v>10</v>
+      </c>
+      <c r="G7" s="13">
+        <v>10</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="13">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="12">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="13">
+        <v>10</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="13">
+        <v>6</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="13">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="12">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="11">
+        <v>20</v>
+      </c>
+      <c r="D9" s="13">
+        <v>10</v>
+      </c>
+      <c r="E9" s="13">
+        <v>10</v>
+      </c>
+      <c r="F9" s="13">
+        <v>10</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="13">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="12">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="13">
+        <v>5</v>
+      </c>
+      <c r="D10" s="13">
+        <v>10</v>
+      </c>
+      <c r="E10" s="13">
+        <v>10</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="13">
+        <v>10</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="13">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="13">
+        <v>10</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="13">
+        <v>5</v>
+      </c>
+      <c r="D12" s="13">
+        <v>10</v>
+      </c>
+      <c r="E12" s="13">
+        <v>10</v>
+      </c>
+      <c r="F12" s="13">
+        <v>10</v>
+      </c>
+      <c r="G12" s="13">
+        <v>10</v>
+      </c>
+      <c r="H12" s="13">
+        <v>10</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="13">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="12">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="13">
+        <v>5</v>
+      </c>
+      <c r="D13" s="13">
+        <v>10</v>
+      </c>
+      <c r="E13" s="13">
+        <v>10</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="13">
+        <v>10</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="13">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="12">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="13">
+        <v>5</v>
+      </c>
+      <c r="D14" s="13">
+        <v>10</v>
+      </c>
+      <c r="E14" s="13">
+        <v>10</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="13">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="12">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="13">
+        <v>25</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="13">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="12">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="11">
+        <v>20</v>
+      </c>
+      <c r="D16" s="13">
+        <v>10</v>
+      </c>
+      <c r="E16" s="13">
+        <v>10</v>
+      </c>
+      <c r="F16" s="13">
+        <v>10</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="13">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="12">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="13">
+        <v>10</v>
+      </c>
+      <c r="E17" s="13">
+        <v>10</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="13">
+        <v>10</v>
+      </c>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="13">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="13">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="14">
-        <v>10</v>
-      </c>
-      <c r="E7" s="14">
-        <v>10</v>
-      </c>
-      <c r="F7" s="14">
-        <v>10</v>
-      </c>
-      <c r="G7" s="14">
-        <v>10</v>
-      </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="14">
-        <f>SUM(C7:J7)</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="13">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="14">
-        <v>10</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="14">
-        <v>6</v>
-      </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="14">
-        <f>SUM(C8:J8)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="13">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="14">
-        <v>10</v>
-      </c>
-      <c r="E9" s="14">
-        <v>10</v>
-      </c>
-      <c r="F9" s="14">
-        <v>10</v>
-      </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="14">
-        <f>SUM(C9:J9)</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" s="13">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s" s="10">
-        <v>12</v>
-      </c>
-      <c r="C10" s="14">
-        <v>5</v>
-      </c>
-      <c r="D10" s="14">
-        <v>10</v>
-      </c>
-      <c r="E10" s="14">
-        <v>10</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="14">
-        <v>10</v>
-      </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="14">
-        <f>SUM(C10:J10)</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" ht="13.55" customHeight="1">
-      <c r="A11" s="13">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="14">
-        <v>10</v>
-      </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="14">
-        <f>SUM(C11:J11)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" ht="13.55" customHeight="1">
-      <c r="A12" s="13">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s" s="10">
-        <v>14</v>
-      </c>
-      <c r="C12" s="14">
-        <v>5</v>
-      </c>
-      <c r="D12" s="14">
-        <v>10</v>
-      </c>
-      <c r="E12" s="14">
-        <v>10</v>
-      </c>
-      <c r="F12" s="14">
-        <v>10</v>
-      </c>
-      <c r="G12" s="14">
-        <v>10</v>
-      </c>
-      <c r="H12" s="14">
-        <v>10</v>
-      </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="14">
-        <f>SUM(C12:J12)</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" ht="13.55" customHeight="1">
-      <c r="A13" s="13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="C13" s="14">
-        <v>5</v>
-      </c>
-      <c r="D13" s="14">
-        <v>10</v>
-      </c>
-      <c r="E13" s="14">
-        <v>10</v>
-      </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="14">
-        <v>10</v>
-      </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="14">
-        <f>SUM(C13:J13)</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" ht="13.55" customHeight="1">
-      <c r="A14" s="13">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s" s="10">
+    <row r="18" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="12">
         <v>17</v>
       </c>
-      <c r="C14" s="14">
-        <v>5</v>
-      </c>
-      <c r="D14" s="14">
-        <v>10</v>
-      </c>
-      <c r="E14" s="14">
-        <v>10</v>
-      </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="14">
-        <f>SUM(C14:J14)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" ht="13.55" customHeight="1">
-      <c r="A15" s="13">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s" s="10">
-        <v>18</v>
-      </c>
-      <c r="C15" s="14">
-        <v>5</v>
-      </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="14">
-        <f>SUM(C15:J15)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" ht="13.55" customHeight="1">
-      <c r="A16" s="13">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s" s="10">
-        <v>19</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="14">
-        <v>10</v>
-      </c>
-      <c r="E16" s="14">
-        <v>10</v>
-      </c>
-      <c r="F16" s="14">
-        <v>10</v>
-      </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="14">
-        <f>SUM(C16:J16)</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" ht="13.55" customHeight="1">
-      <c r="A17" s="13">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s" s="10">
-        <v>20</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="14">
-        <v>10</v>
-      </c>
-      <c r="E17" s="14">
-        <v>10</v>
-      </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="14">
-        <v>10</v>
-      </c>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="14">
-        <f>SUM(C17:J17)</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" ht="13.55" customHeight="1">
-      <c r="A18" s="13">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s" s="10">
+      <c r="B18" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="14">
-        <v>10</v>
-      </c>
-      <c r="E18" s="14">
-        <v>10</v>
-      </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="14">
-        <f>SUM(C18:J18)</f>
+      <c r="C18" s="11"/>
+      <c r="D18" s="13">
+        <v>10</v>
+      </c>
+      <c r="E18" s="13">
+        <v>10</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="13">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:K18">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>"#"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="equal">
       <formula>"+"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.700787" right="0.700787" top="0.751969" bottom="0.751969" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.70078700000000005" right="0.70078700000000005" top="0.751969" bottom="0.751969" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Успеваемость_С-ИП-21-2.xlsx
+++ b/Успеваемость_С-ИП-21-2.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/Работа/Колледж/GitHub/db-management-and-automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EDC038-6FA6-2944-ABB1-CF56C1C3F575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80BD91A-7E91-2D42-8AC3-919CE2876CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
+    <sheet name="Успеваемость" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -135,31 +135,31 @@
     <t>Доп</t>
   </si>
   <si>
-    <t>Proc</t>
-  </si>
-  <si>
-    <t>Trig</t>
-  </si>
-  <si>
-    <t>pymsql</t>
-  </si>
-  <si>
-    <t>ORM</t>
-  </si>
-  <si>
-    <t>Install</t>
-  </si>
-  <si>
     <t>Итог</t>
   </si>
   <si>
-    <t>Безопасность</t>
+    <t>Рейтинг</t>
   </si>
   <si>
-    <t>Резерв</t>
+    <t>Proc (15)</t>
   </si>
   <si>
-    <t>Рейтинг</t>
+    <t>Trig (15)</t>
+  </si>
+  <si>
+    <t>Script (15)</t>
+  </si>
+  <si>
+    <t>ORM (15)</t>
+  </si>
+  <si>
+    <t>Install (10)</t>
+  </si>
+  <si>
+    <t>Резерв (10)</t>
+  </si>
+  <si>
+    <t>Тест (20)</t>
   </si>
 </sst>
 </file>
@@ -169,7 +169,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\.m"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -190,6 +190,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -212,7 +218,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -263,11 +269,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -280,9 +299,6 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -294,6 +310,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1524,8 +1553,8 @@
   <dimension ref="A1:Y18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="166" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R11" sqref="R11"/>
+      <pane xSplit="2" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1595,18 +1624,18 @@
       <c r="S1" s="5">
         <v>45019</v>
       </c>
-      <c r="T1" s="14">
+      <c r="T1" s="13">
         <v>45022</v>
       </c>
-      <c r="U1" s="17">
+      <c r="U1" s="16">
         <v>45023</v>
       </c>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y1" s="16"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" s="15"/>
     </row>
     <row r="2" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
@@ -1666,19 +1695,19 @@
       <c r="S2" s="8">
         <v>-15</v>
       </c>
-      <c r="T2" s="15">
-        <v>15</v>
-      </c>
-      <c r="U2" s="16">
+      <c r="T2" s="14">
+        <v>15</v>
+      </c>
+      <c r="U2" s="15">
         <v>0</v>
       </c>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16">
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15">
         <f>SUM(M2:W2)</f>
         <v>20</v>
       </c>
-      <c r="Y2" s="16"/>
+      <c r="Y2" s="15"/>
     </row>
     <row r="3" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
@@ -1738,19 +1767,19 @@
       <c r="S3" s="8">
         <v>0</v>
       </c>
-      <c r="T3" s="15">
+      <c r="T3" s="14">
         <v>0</v>
       </c>
-      <c r="U3" s="16">
+      <c r="U3" s="15">
         <v>0</v>
       </c>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16">
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15">
         <f t="shared" ref="X3:X18" si="0">SUM(M3:W3)</f>
         <v>-5</v>
       </c>
-      <c r="Y3" s="16"/>
+      <c r="Y3" s="15"/>
     </row>
     <row r="4" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
@@ -1810,19 +1839,19 @@
       <c r="S4" s="8">
         <v>10</v>
       </c>
-      <c r="T4" s="15">
-        <v>15</v>
-      </c>
-      <c r="U4" s="16">
-        <v>10</v>
-      </c>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16">
+      <c r="T4" s="14">
+        <v>15</v>
+      </c>
+      <c r="U4" s="15">
+        <v>10</v>
+      </c>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="Y4" s="16"/>
+      <c r="Y4" s="15"/>
     </row>
     <row r="5" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
@@ -1880,21 +1909,21 @@
         <v>0</v>
       </c>
       <c r="S5" s="8">
-        <v>-15</v>
-      </c>
-      <c r="T5" s="15">
-        <v>-10</v>
-      </c>
-      <c r="U5" s="16">
-        <v>-15</v>
-      </c>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16">
+        <v>0</v>
+      </c>
+      <c r="T5" s="14">
+        <v>0</v>
+      </c>
+      <c r="U5" s="15">
+        <v>0</v>
+      </c>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15">
         <f t="shared" si="0"/>
-        <v>-15</v>
-      </c>
-      <c r="Y5" s="16"/>
+        <v>25</v>
+      </c>
+      <c r="Y5" s="15"/>
     </row>
     <row r="6" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
@@ -1954,19 +1983,19 @@
       <c r="S6" s="8">
         <v>-15</v>
       </c>
-      <c r="T6" s="15">
-        <v>15</v>
-      </c>
-      <c r="U6" s="16">
-        <v>10</v>
-      </c>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16">
+      <c r="T6" s="14">
+        <v>15</v>
+      </c>
+      <c r="U6" s="15">
+        <v>10</v>
+      </c>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15">
         <f t="shared" si="0"/>
         <v>-20</v>
       </c>
-      <c r="Y6" s="16"/>
+      <c r="Y6" s="15"/>
     </row>
     <row r="7" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
@@ -2026,19 +2055,18 @@
       <c r="S7" s="8">
         <v>10</v>
       </c>
-      <c r="T7" s="15">
-        <v>15</v>
-      </c>
-      <c r="U7" s="16">
+      <c r="T7" s="14">
+        <v>15</v>
+      </c>
+      <c r="U7" s="15">
         <v>-15</v>
       </c>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16">
+      <c r="W7" s="15"/>
+      <c r="X7" s="15">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="Y7" s="16"/>
+      <c r="Y7" s="15"/>
     </row>
     <row r="8" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
@@ -2098,19 +2126,19 @@
       <c r="S8" s="8">
         <v>-15</v>
       </c>
-      <c r="T8" s="15">
-        <v>15</v>
-      </c>
-      <c r="U8" s="16">
-        <v>10</v>
-      </c>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="16">
+      <c r="T8" s="14">
+        <v>15</v>
+      </c>
+      <c r="U8" s="15">
+        <v>10</v>
+      </c>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="Y8" s="16"/>
+      <c r="Y8" s="15"/>
     </row>
     <row r="9" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
@@ -2170,19 +2198,19 @@
       <c r="S9" s="8">
         <v>0</v>
       </c>
-      <c r="T9" s="15">
+      <c r="T9" s="14">
         <v>0</v>
       </c>
-      <c r="U9" s="16">
+      <c r="U9" s="15">
         <v>0</v>
       </c>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16">
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="Y9" s="16"/>
+      <c r="Y9" s="15"/>
     </row>
     <row r="10" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
@@ -2242,19 +2270,19 @@
       <c r="S10" s="8">
         <v>-15</v>
       </c>
-      <c r="T10" s="15">
-        <v>15</v>
-      </c>
-      <c r="U10" s="16">
-        <v>10</v>
-      </c>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16">
+      <c r="T10" s="14">
+        <v>15</v>
+      </c>
+      <c r="U10" s="15">
+        <v>10</v>
+      </c>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="Y10" s="16"/>
+      <c r="Y10" s="15"/>
     </row>
     <row r="11" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
@@ -2314,19 +2342,19 @@
       <c r="S11" s="8">
         <v>-15</v>
       </c>
-      <c r="T11" s="15">
+      <c r="T11" s="14">
         <v>-10</v>
       </c>
-      <c r="U11" s="16">
+      <c r="U11" s="15">
         <v>-15</v>
       </c>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="16">
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15">
         <f t="shared" si="0"/>
         <v>-120</v>
       </c>
-      <c r="Y11" s="16"/>
+      <c r="Y11" s="15"/>
     </row>
     <row r="12" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
@@ -2386,19 +2414,19 @@
       <c r="S12" s="8">
         <v>10</v>
       </c>
-      <c r="T12" s="15">
-        <v>15</v>
-      </c>
-      <c r="U12" s="16">
+      <c r="T12" s="14">
+        <v>15</v>
+      </c>
+      <c r="U12" s="15">
         <v>-15</v>
       </c>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="16">
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="Y12" s="16"/>
+      <c r="Y12" s="15"/>
     </row>
     <row r="13" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
@@ -2458,19 +2486,19 @@
       <c r="S13" s="8">
         <v>10</v>
       </c>
-      <c r="T13" s="15">
+      <c r="T13" s="14">
         <v>-10</v>
       </c>
-      <c r="U13" s="16">
-        <v>10</v>
-      </c>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="16">
+      <c r="U13" s="15">
+        <v>10</v>
+      </c>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="Y13" s="16"/>
+      <c r="Y13" s="15"/>
     </row>
     <row r="14" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
@@ -2530,19 +2558,19 @@
       <c r="S14" s="8">
         <v>10</v>
       </c>
-      <c r="T14" s="15">
-        <v>15</v>
-      </c>
-      <c r="U14" s="16">
+      <c r="T14" s="14">
+        <v>15</v>
+      </c>
+      <c r="U14" s="15">
         <v>-15</v>
       </c>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="16">
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15">
         <f t="shared" si="0"/>
         <v>-20</v>
       </c>
-      <c r="Y14" s="16"/>
+      <c r="Y14" s="15"/>
     </row>
     <row r="15" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
@@ -2602,19 +2630,19 @@
       <c r="S15" s="8">
         <v>-15</v>
       </c>
-      <c r="T15" s="15">
+      <c r="T15" s="14">
         <v>0</v>
       </c>
-      <c r="U15" s="16">
+      <c r="U15" s="15">
         <v>0</v>
       </c>
-      <c r="V15" s="16"/>
-      <c r="W15" s="16"/>
-      <c r="X15" s="16">
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="Y15" s="16"/>
+      <c r="Y15" s="15"/>
     </row>
     <row r="16" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
@@ -2674,19 +2702,19 @@
       <c r="S16" s="8">
         <v>0</v>
       </c>
-      <c r="T16" s="15">
+      <c r="T16" s="14">
         <v>0</v>
       </c>
-      <c r="U16" s="16">
+      <c r="U16" s="15">
         <v>0</v>
       </c>
-      <c r="V16" s="16"/>
-      <c r="W16" s="16"/>
-      <c r="X16" s="16">
+      <c r="V16" s="15"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="15">
         <f t="shared" si="0"/>
         <v>-5</v>
       </c>
-      <c r="Y16" s="16"/>
+      <c r="Y16" s="15"/>
     </row>
     <row r="17" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
@@ -2746,19 +2774,19 @@
       <c r="S17" s="8">
         <v>-15</v>
       </c>
-      <c r="T17" s="15">
+      <c r="T17" s="14">
         <v>-10</v>
       </c>
-      <c r="U17" s="16">
-        <v>10</v>
-      </c>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="16">
+      <c r="U17" s="15">
+        <v>10</v>
+      </c>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="Y17" s="16"/>
+      <c r="Y17" s="15"/>
     </row>
     <row r="18" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
@@ -2818,19 +2846,19 @@
       <c r="S18" s="8">
         <v>10</v>
       </c>
-      <c r="T18" s="15">
-        <v>15</v>
-      </c>
-      <c r="U18" s="16">
-        <v>10</v>
-      </c>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="16">
+      <c r="T18" s="14">
+        <v>15</v>
+      </c>
+      <c r="U18" s="15">
+        <v>10</v>
+      </c>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="Y18" s="16"/>
+      <c r="Y18" s="15"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:L18">
@@ -2857,16 +2885,23 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="178" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.5" style="1" customWidth="1"/>
-    <col min="3" max="8" width="8.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="8.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.83203125" style="1" customWidth="1"/>
     <col min="13" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -2874,489 +2909,489 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="13">
-        <v>10</v>
-      </c>
-      <c r="E2" s="13">
-        <v>10</v>
-      </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="13">
-        <v>10</v>
-      </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="13">
-        <f t="shared" ref="K2:K18" si="0">SUM(C2:J2)</f>
-        <v>30</v>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19">
+        <v>15</v>
+      </c>
+      <c r="E2" s="19">
+        <v>15</v>
+      </c>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="19">
+        <v>10</v>
+      </c>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="19">
+        <f>SUM(C2:J2)</f>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="12">
         <v>35</v>
       </c>
-      <c r="D3" s="13">
-        <v>10</v>
-      </c>
-      <c r="E3" s="13">
-        <v>10</v>
-      </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="13">
-        <f t="shared" si="0"/>
-        <v>55</v>
+      <c r="D3" s="12">
+        <v>15</v>
+      </c>
+      <c r="E3" s="12">
+        <v>15</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="12">
+        <f t="shared" ref="K3:K18" si="0">SUM(C3:J3)</f>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="13">
-        <v>10</v>
-      </c>
-      <c r="E4" s="13">
-        <v>10</v>
-      </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="13">
-        <v>10</v>
-      </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="13">
+      <c r="C4" s="10"/>
+      <c r="D4" s="12">
+        <v>15</v>
+      </c>
+      <c r="E4" s="12">
+        <v>15</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="12">
+        <v>10</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="12">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="12">
+        <v>20</v>
+      </c>
+      <c r="D5" s="12">
+        <v>15</v>
+      </c>
+      <c r="E5" s="12">
+        <v>15</v>
+      </c>
+      <c r="F5" s="12">
+        <v>15</v>
+      </c>
+      <c r="G5" s="12">
+        <v>15</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="12">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="12">
+        <v>15</v>
+      </c>
+      <c r="E6" s="12">
+        <v>15</v>
+      </c>
+      <c r="F6" s="10">
+        <v>15</v>
+      </c>
+      <c r="G6" s="10">
+        <v>15</v>
+      </c>
+      <c r="H6" s="12">
+        <v>10</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="12">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="12">
+        <v>15</v>
+      </c>
+      <c r="E7" s="12">
+        <v>15</v>
+      </c>
+      <c r="F7" s="12">
+        <v>15</v>
+      </c>
+      <c r="G7" s="12">
+        <v>15</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="12">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="12">
+        <v>15</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="12">
+        <v>6</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="12">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="10">
+        <v>20</v>
+      </c>
+      <c r="D9" s="12">
+        <v>15</v>
+      </c>
+      <c r="E9" s="12">
+        <v>15</v>
+      </c>
+      <c r="F9" s="12">
+        <v>15</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="12">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="12">
+        <v>5</v>
+      </c>
+      <c r="D10" s="12">
+        <v>15</v>
+      </c>
+      <c r="E10" s="12">
+        <v>15</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="12">
+        <v>10</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="12">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="12">
+        <v>10</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="12">
+        <v>5</v>
+      </c>
+      <c r="D12" s="12">
+        <v>15</v>
+      </c>
+      <c r="E12" s="12">
+        <v>15</v>
+      </c>
+      <c r="F12" s="12">
+        <v>15</v>
+      </c>
+      <c r="G12" s="12">
+        <v>15</v>
+      </c>
+      <c r="H12" s="12">
+        <v>10</v>
+      </c>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="12">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="12">
+        <v>5</v>
+      </c>
+      <c r="D13" s="12">
+        <v>15</v>
+      </c>
+      <c r="E13" s="12">
+        <v>15</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="12">
+        <v>10</v>
+      </c>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="12">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="12">
+        <v>5</v>
+      </c>
+      <c r="D14" s="12">
+        <v>15</v>
+      </c>
+      <c r="E14" s="12">
+        <v>15</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="12">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="11">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="12">
+        <v>25</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="12">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="11">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="10">
+        <v>20</v>
+      </c>
+      <c r="D16" s="12">
+        <v>15</v>
+      </c>
+      <c r="E16" s="12">
+        <v>15</v>
+      </c>
+      <c r="F16" s="12">
+        <v>15</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="12">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="11">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="12">
+        <v>15</v>
+      </c>
+      <c r="E17" s="12">
+        <v>15</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="12">
+        <v>10</v>
+      </c>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="12">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="11">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="12">
+        <v>15</v>
+      </c>
+      <c r="E18" s="12">
+        <v>15</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="12">
         <f t="shared" si="0"/>
         <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12">
-        <v>4</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="13">
-        <v>20</v>
-      </c>
-      <c r="D5" s="13">
-        <v>10</v>
-      </c>
-      <c r="E5" s="13">
-        <v>10</v>
-      </c>
-      <c r="F5" s="13">
-        <v>10</v>
-      </c>
-      <c r="G5" s="13">
-        <v>10</v>
-      </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="13">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12">
-        <v>5</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="13">
-        <v>10</v>
-      </c>
-      <c r="E6" s="13">
-        <v>10</v>
-      </c>
-      <c r="F6" s="11">
-        <v>10</v>
-      </c>
-      <c r="G6" s="11">
-        <v>10</v>
-      </c>
-      <c r="H6" s="13">
-        <v>10</v>
-      </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="13">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12">
-        <v>6</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="13">
-        <v>10</v>
-      </c>
-      <c r="E7" s="13">
-        <v>10</v>
-      </c>
-      <c r="F7" s="13">
-        <v>10</v>
-      </c>
-      <c r="G7" s="13">
-        <v>10</v>
-      </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="13">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12">
-        <v>7</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="13">
-        <v>10</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="13">
-        <v>6</v>
-      </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="13">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12">
-        <v>8</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="11">
-        <v>20</v>
-      </c>
-      <c r="D9" s="13">
-        <v>10</v>
-      </c>
-      <c r="E9" s="13">
-        <v>10</v>
-      </c>
-      <c r="F9" s="13">
-        <v>10</v>
-      </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="13">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12">
-        <v>9</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="13">
-        <v>5</v>
-      </c>
-      <c r="D10" s="13">
-        <v>10</v>
-      </c>
-      <c r="E10" s="13">
-        <v>10</v>
-      </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="13">
-        <v>10</v>
-      </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="13">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12">
-        <v>10</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="13">
-        <v>10</v>
-      </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="13">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="13">
-        <v>5</v>
-      </c>
-      <c r="D12" s="13">
-        <v>10</v>
-      </c>
-      <c r="E12" s="13">
-        <v>10</v>
-      </c>
-      <c r="F12" s="13">
-        <v>10</v>
-      </c>
-      <c r="G12" s="13">
-        <v>10</v>
-      </c>
-      <c r="H12" s="13">
-        <v>10</v>
-      </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="13">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12">
-        <v>12</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="13">
-        <v>5</v>
-      </c>
-      <c r="D13" s="13">
-        <v>10</v>
-      </c>
-      <c r="E13" s="13">
-        <v>10</v>
-      </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="13">
-        <v>10</v>
-      </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="13">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12">
-        <v>13</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="13">
-        <v>5</v>
-      </c>
-      <c r="D14" s="13">
-        <v>10</v>
-      </c>
-      <c r="E14" s="13">
-        <v>10</v>
-      </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="13">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12">
-        <v>14</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="13">
-        <v>25</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="13">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="12">
-        <v>15</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="11">
-        <v>20</v>
-      </c>
-      <c r="D16" s="13">
-        <v>10</v>
-      </c>
-      <c r="E16" s="13">
-        <v>10</v>
-      </c>
-      <c r="F16" s="13">
-        <v>10</v>
-      </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="13">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12">
-        <v>16</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="13">
-        <v>10</v>
-      </c>
-      <c r="E17" s="13">
-        <v>10</v>
-      </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="13">
-        <v>10</v>
-      </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="13">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="12">
-        <v>17</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="13">
-        <v>10</v>
-      </c>
-      <c r="E18" s="13">
-        <v>10</v>
-      </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="13">
-        <f t="shared" si="0"/>
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Успеваемость_С-ИП-21-2.xlsx
+++ b/Успеваемость_С-ИП-21-2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/Работа/Колледж/GitHub/db-management-and-automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80BD91A-7E91-2D42-8AC3-919CE2876CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C062293-9209-AD44-B190-C3B53448453E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
@@ -218,7 +218,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -282,11 +282,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -323,6 +334,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1552,9 +1564,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="166" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S13" sqref="S13"/>
+    <sheetView showGridLines="0" zoomScale="166" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1630,7 +1642,9 @@
       <c r="U1" s="16">
         <v>45023</v>
       </c>
-      <c r="V1" s="15"/>
+      <c r="V1" s="16">
+        <v>45030</v>
+      </c>
       <c r="W1" s="15"/>
       <c r="X1" s="15" t="s">
         <v>24</v>
@@ -1701,11 +1715,13 @@
       <c r="U2" s="15">
         <v>0</v>
       </c>
-      <c r="V2" s="15"/>
+      <c r="V2" s="15">
+        <v>10</v>
+      </c>
       <c r="W2" s="15"/>
       <c r="X2" s="15">
         <f>SUM(M2:W2)</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="Y2" s="15"/>
     </row>
@@ -1773,11 +1789,13 @@
       <c r="U3" s="15">
         <v>0</v>
       </c>
-      <c r="V3" s="15"/>
+      <c r="V3" s="15">
+        <v>-15</v>
+      </c>
       <c r="W3" s="15"/>
       <c r="X3" s="15">
         <f t="shared" ref="X3:X18" si="0">SUM(M3:W3)</f>
-        <v>-5</v>
+        <v>-20</v>
       </c>
       <c r="Y3" s="15"/>
     </row>
@@ -1845,11 +1863,13 @@
       <c r="U4" s="15">
         <v>10</v>
       </c>
-      <c r="V4" s="15"/>
+      <c r="V4" s="15">
+        <v>10</v>
+      </c>
       <c r="W4" s="15"/>
       <c r="X4" s="15">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="Y4" s="15"/>
     </row>
@@ -1917,11 +1937,13 @@
       <c r="U5" s="15">
         <v>0</v>
       </c>
-      <c r="V5" s="15"/>
+      <c r="V5" s="15">
+        <v>10</v>
+      </c>
       <c r="W5" s="15"/>
       <c r="X5" s="15">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="Y5" s="15"/>
     </row>
@@ -1989,11 +2011,13 @@
       <c r="U6" s="15">
         <v>10</v>
       </c>
-      <c r="V6" s="15"/>
+      <c r="V6" s="15">
+        <v>10</v>
+      </c>
       <c r="W6" s="15"/>
       <c r="X6" s="15">
         <f t="shared" si="0"/>
-        <v>-20</v>
+        <v>-10</v>
       </c>
       <c r="Y6" s="15"/>
     </row>
@@ -2061,10 +2085,13 @@
       <c r="U7" s="15">
         <v>-15</v>
       </c>
+      <c r="V7" s="22">
+        <v>-15</v>
+      </c>
       <c r="W7" s="15"/>
       <c r="X7" s="15">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Y7" s="15"/>
     </row>
@@ -2132,11 +2159,13 @@
       <c r="U8" s="15">
         <v>10</v>
       </c>
-      <c r="V8" s="15"/>
+      <c r="V8" s="15">
+        <v>10</v>
+      </c>
       <c r="W8" s="15"/>
       <c r="X8" s="15">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="Y8" s="15"/>
     </row>
@@ -2204,11 +2233,13 @@
       <c r="U9" s="15">
         <v>0</v>
       </c>
-      <c r="V9" s="15"/>
+      <c r="V9" s="15">
+        <v>10</v>
+      </c>
       <c r="W9" s="15"/>
       <c r="X9" s="15">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="Y9" s="15"/>
     </row>
@@ -2276,11 +2307,13 @@
       <c r="U10" s="15">
         <v>10</v>
       </c>
-      <c r="V10" s="15"/>
+      <c r="V10" s="15">
+        <v>10</v>
+      </c>
       <c r="W10" s="15"/>
       <c r="X10" s="15">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="Y10" s="15"/>
     </row>
@@ -2348,11 +2381,13 @@
       <c r="U11" s="15">
         <v>-15</v>
       </c>
-      <c r="V11" s="15"/>
+      <c r="V11" s="15">
+        <v>-15</v>
+      </c>
       <c r="W11" s="15"/>
       <c r="X11" s="15">
         <f t="shared" si="0"/>
-        <v>-120</v>
+        <v>-135</v>
       </c>
       <c r="Y11" s="15"/>
     </row>
@@ -2420,11 +2455,13 @@
       <c r="U12" s="15">
         <v>-15</v>
       </c>
-      <c r="V12" s="15"/>
+      <c r="V12" s="15">
+        <v>10</v>
+      </c>
       <c r="W12" s="15"/>
       <c r="X12" s="15">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="Y12" s="15"/>
     </row>
@@ -2492,11 +2529,13 @@
       <c r="U13" s="15">
         <v>10</v>
       </c>
-      <c r="V13" s="15"/>
+      <c r="V13" s="15">
+        <v>10</v>
+      </c>
       <c r="W13" s="15"/>
       <c r="X13" s="15">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="Y13" s="15"/>
     </row>
@@ -2564,11 +2603,13 @@
       <c r="U14" s="15">
         <v>-15</v>
       </c>
-      <c r="V14" s="15"/>
+      <c r="V14" s="15">
+        <v>-15</v>
+      </c>
       <c r="W14" s="15"/>
       <c r="X14" s="15">
         <f t="shared" si="0"/>
-        <v>-20</v>
+        <v>-35</v>
       </c>
       <c r="Y14" s="15"/>
     </row>
@@ -2636,11 +2677,13 @@
       <c r="U15" s="15">
         <v>0</v>
       </c>
-      <c r="V15" s="15"/>
+      <c r="V15" s="15">
+        <v>10</v>
+      </c>
       <c r="W15" s="15"/>
       <c r="X15" s="15">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Y15" s="15"/>
     </row>
@@ -2708,11 +2751,13 @@
       <c r="U16" s="15">
         <v>0</v>
       </c>
-      <c r="V16" s="15"/>
+      <c r="V16" s="15">
+        <v>10</v>
+      </c>
       <c r="W16" s="15"/>
       <c r="X16" s="15">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="Y16" s="15"/>
     </row>
@@ -2780,11 +2825,13 @@
       <c r="U17" s="15">
         <v>10</v>
       </c>
-      <c r="V17" s="15"/>
+      <c r="V17" s="15">
+        <v>10</v>
+      </c>
       <c r="W17" s="15"/>
       <c r="X17" s="15">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="Y17" s="15"/>
     </row>
@@ -2852,11 +2899,13 @@
       <c r="U18" s="15">
         <v>10</v>
       </c>
-      <c r="V18" s="15"/>
+      <c r="V18" s="15">
+        <v>10</v>
+      </c>
       <c r="W18" s="15"/>
       <c r="X18" s="15">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="Y18" s="15"/>
     </row>
@@ -2884,8 +2933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="178" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="178" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3006,7 +3055,9 @@
       <c r="E4" s="12">
         <v>15</v>
       </c>
-      <c r="F4" s="10"/>
+      <c r="F4" s="10">
+        <v>15</v>
+      </c>
       <c r="G4" s="10"/>
       <c r="H4" s="12">
         <v>10</v>
@@ -3015,7 +3066,7 @@
       <c r="J4" s="10"/>
       <c r="K4" s="12">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3040,12 +3091,14 @@
       <c r="G5" s="12">
         <v>15</v>
       </c>
-      <c r="H5" s="10"/>
+      <c r="H5" s="10">
+        <v>10</v>
+      </c>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
       <c r="K5" s="12">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3098,12 +3151,14 @@
       <c r="G7" s="12">
         <v>15</v>
       </c>
-      <c r="H7" s="10"/>
+      <c r="H7" s="10">
+        <v>10</v>
+      </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="12">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3117,7 +3172,9 @@
       <c r="D8" s="12">
         <v>15</v>
       </c>
-      <c r="E8" s="10"/>
+      <c r="E8" s="10">
+        <v>15</v>
+      </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="12">
@@ -3127,7 +3184,7 @@
       <c r="J8" s="10"/>
       <c r="K8" s="12">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3150,12 +3207,14 @@
         <v>15</v>
       </c>
       <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
+      <c r="H9" s="10">
+        <v>6</v>
+      </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
       <c r="K9" s="12">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3256,7 +3315,9 @@
       <c r="E13" s="12">
         <v>15</v>
       </c>
-      <c r="F13" s="10"/>
+      <c r="F13" s="10">
+        <v>15</v>
+      </c>
       <c r="G13" s="10"/>
       <c r="H13" s="12">
         <v>10</v>
@@ -3265,7 +3326,7 @@
       <c r="J13" s="10"/>
       <c r="K13" s="12">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3336,12 +3397,14 @@
         <v>15</v>
       </c>
       <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
+      <c r="H16" s="10">
+        <v>6</v>
+      </c>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="12">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3351,7 +3414,9 @@
       <c r="B17" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="10"/>
+      <c r="C17" s="10">
+        <v>5</v>
+      </c>
       <c r="D17" s="12">
         <v>15</v>
       </c>
@@ -3367,7 +3432,7 @@
       <c r="J17" s="10"/>
       <c r="K17" s="12">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">

--- a/Успеваемость_С-ИП-21-2.xlsx
+++ b/Успеваемость_С-ИП-21-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/Работа/Колледж/GitHub/db-management-and-automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C062293-9209-AD44-B190-C3B53448453E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201C0C1C-2F16-024F-951E-A3EB14F4C339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
@@ -1564,9 +1564,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="166" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="166" workbookViewId="0">
       <pane xSplit="2" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X4" sqref="X4"/>
+      <selection pane="topRight" activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1645,7 +1645,9 @@
       <c r="V1" s="16">
         <v>45030</v>
       </c>
-      <c r="W1" s="15"/>
+      <c r="W1" s="16">
+        <v>45036</v>
+      </c>
       <c r="X1" s="15" t="s">
         <v>24</v>
       </c>
@@ -1718,10 +1720,12 @@
       <c r="V2" s="15">
         <v>10</v>
       </c>
-      <c r="W2" s="15"/>
+      <c r="W2" s="15">
+        <v>15</v>
+      </c>
       <c r="X2" s="15">
         <f>SUM(M2:W2)</f>
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="Y2" s="15"/>
     </row>
@@ -1792,10 +1796,12 @@
       <c r="V3" s="15">
         <v>-15</v>
       </c>
-      <c r="W3" s="15"/>
+      <c r="W3" s="15">
+        <v>15</v>
+      </c>
       <c r="X3" s="15">
         <f t="shared" ref="X3:X18" si="0">SUM(M3:W3)</f>
-        <v>-20</v>
+        <v>-5</v>
       </c>
       <c r="Y3" s="15"/>
     </row>
@@ -1866,10 +1872,12 @@
       <c r="V4" s="15">
         <v>10</v>
       </c>
-      <c r="W4" s="15"/>
+      <c r="W4" s="15">
+        <v>15</v>
+      </c>
       <c r="X4" s="15">
         <f t="shared" si="0"/>
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="Y4" s="15"/>
     </row>
@@ -1940,10 +1948,12 @@
       <c r="V5" s="15">
         <v>10</v>
       </c>
-      <c r="W5" s="15"/>
+      <c r="W5" s="15">
+        <v>15</v>
+      </c>
       <c r="X5" s="15">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="Y5" s="15"/>
     </row>
@@ -2014,10 +2024,12 @@
       <c r="V6" s="15">
         <v>10</v>
       </c>
-      <c r="W6" s="15"/>
+      <c r="W6" s="15">
+        <v>15</v>
+      </c>
       <c r="X6" s="15">
         <f t="shared" si="0"/>
-        <v>-10</v>
+        <v>5</v>
       </c>
       <c r="Y6" s="15"/>
     </row>
@@ -2088,10 +2100,12 @@
       <c r="V7" s="22">
         <v>-15</v>
       </c>
-      <c r="W7" s="15"/>
+      <c r="W7" s="15">
+        <v>15</v>
+      </c>
       <c r="X7" s="15">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="Y7" s="15"/>
     </row>
@@ -2162,10 +2176,12 @@
       <c r="V8" s="15">
         <v>10</v>
       </c>
-      <c r="W8" s="15"/>
+      <c r="W8" s="15">
+        <v>15</v>
+      </c>
       <c r="X8" s="15">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="Y8" s="15"/>
     </row>
@@ -2236,7 +2252,9 @@
       <c r="V9" s="15">
         <v>10</v>
       </c>
-      <c r="W9" s="15"/>
+      <c r="W9" s="15">
+        <v>0</v>
+      </c>
       <c r="X9" s="15">
         <f t="shared" si="0"/>
         <v>80</v>
@@ -2310,10 +2328,12 @@
       <c r="V10" s="15">
         <v>10</v>
       </c>
-      <c r="W10" s="15"/>
+      <c r="W10" s="15">
+        <v>15</v>
+      </c>
       <c r="X10" s="15">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="Y10" s="15"/>
     </row>
@@ -2384,10 +2404,12 @@
       <c r="V11" s="15">
         <v>-15</v>
       </c>
-      <c r="W11" s="15"/>
+      <c r="W11" s="15">
+        <v>15</v>
+      </c>
       <c r="X11" s="15">
         <f t="shared" si="0"/>
-        <v>-135</v>
+        <v>-120</v>
       </c>
       <c r="Y11" s="15"/>
     </row>
@@ -2458,10 +2480,12 @@
       <c r="V12" s="15">
         <v>10</v>
       </c>
-      <c r="W12" s="15"/>
+      <c r="W12" s="15">
+        <v>15</v>
+      </c>
       <c r="X12" s="15">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="Y12" s="15"/>
     </row>
@@ -2532,10 +2556,12 @@
       <c r="V13" s="15">
         <v>10</v>
       </c>
-      <c r="W13" s="15"/>
+      <c r="W13" s="15">
+        <v>15</v>
+      </c>
       <c r="X13" s="15">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="Y13" s="15"/>
     </row>
@@ -2606,10 +2632,12 @@
       <c r="V14" s="15">
         <v>-15</v>
       </c>
-      <c r="W14" s="15"/>
+      <c r="W14" s="15">
+        <v>15</v>
+      </c>
       <c r="X14" s="15">
         <f t="shared" si="0"/>
-        <v>-35</v>
+        <v>-20</v>
       </c>
       <c r="Y14" s="15"/>
     </row>
@@ -2680,10 +2708,12 @@
       <c r="V15" s="15">
         <v>10</v>
       </c>
-      <c r="W15" s="15"/>
+      <c r="W15" s="15">
+        <v>15</v>
+      </c>
       <c r="X15" s="15">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="Y15" s="15"/>
     </row>
@@ -2754,7 +2784,9 @@
       <c r="V16" s="15">
         <v>10</v>
       </c>
-      <c r="W16" s="15"/>
+      <c r="W16" s="15">
+        <v>0</v>
+      </c>
       <c r="X16" s="15">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2828,10 +2860,12 @@
       <c r="V17" s="15">
         <v>10</v>
       </c>
-      <c r="W17" s="15"/>
+      <c r="W17" s="15">
+        <v>15</v>
+      </c>
       <c r="X17" s="15">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="Y17" s="15"/>
     </row>
@@ -2902,10 +2936,12 @@
       <c r="V18" s="15">
         <v>10</v>
       </c>
-      <c r="W18" s="15"/>
+      <c r="W18" s="15">
+        <v>15</v>
+      </c>
       <c r="X18" s="15">
         <f t="shared" si="0"/>
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="Y18" s="15"/>
     </row>
@@ -2933,7 +2969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="178" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="178" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>

--- a/Успеваемость_С-ИП-21-2.xlsx
+++ b/Успеваемость_С-ИП-21-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/Работа/Колледж/GitHub/db-management-and-automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201C0C1C-2F16-024F-951E-A3EB14F4C339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A4F084-9069-904E-A797-780A2EC60D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1565,8 +1565,8 @@
   <dimension ref="A1:Y18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="166" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T14" sqref="T14"/>
+      <pane xSplit="2" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1648,10 +1648,12 @@
       <c r="W1" s="16">
         <v>45036</v>
       </c>
-      <c r="X1" s="15" t="s">
+      <c r="X1" s="16">
+        <v>45037</v>
+      </c>
+      <c r="Y1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="15"/>
     </row>
     <row r="2" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
@@ -1724,10 +1726,12 @@
         <v>15</v>
       </c>
       <c r="X2" s="15">
-        <f>SUM(M2:W2)</f>
-        <v>45</v>
-      </c>
-      <c r="Y2" s="15"/>
+        <v>10</v>
+      </c>
+      <c r="Y2" s="15">
+        <f t="shared" ref="Y2:Y18" si="0">SUM(M2:X2)</f>
+        <v>55</v>
+      </c>
     </row>
     <row r="3" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
@@ -1800,10 +1804,12 @@
         <v>15</v>
       </c>
       <c r="X3" s="15">
-        <f t="shared" ref="X3:X18" si="0">SUM(M3:W3)</f>
-        <v>-5</v>
-      </c>
-      <c r="Y3" s="15"/>
+        <v>-15</v>
+      </c>
+      <c r="Y3" s="15">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
     </row>
     <row r="4" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
@@ -1876,10 +1882,12 @@
         <v>15</v>
       </c>
       <c r="X4" s="15">
+        <v>10</v>
+      </c>
+      <c r="Y4" s="15">
         <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="Y4" s="15"/>
+        <v>140</v>
+      </c>
     </row>
     <row r="5" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
@@ -1952,10 +1960,12 @@
         <v>15</v>
       </c>
       <c r="X5" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="15">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="Y5" s="15"/>
     </row>
     <row r="6" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
@@ -2028,10 +2038,12 @@
         <v>15</v>
       </c>
       <c r="X6" s="15">
+        <v>-15</v>
+      </c>
+      <c r="Y6" s="15">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="Y6" s="15"/>
+        <v>-10</v>
+      </c>
     </row>
     <row r="7" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
@@ -2095,19 +2107,21 @@
         <v>15</v>
       </c>
       <c r="U7" s="15">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="V7" s="22">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="W7" s="15">
         <v>15</v>
       </c>
       <c r="X7" s="15">
+        <v>10</v>
+      </c>
+      <c r="Y7" s="15">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="Y7" s="15"/>
+        <v>70</v>
+      </c>
     </row>
     <row r="8" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
@@ -2180,10 +2194,12 @@
         <v>15</v>
       </c>
       <c r="X8" s="15">
+        <v>10</v>
+      </c>
+      <c r="Y8" s="15">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="Y8" s="15"/>
+        <v>40</v>
+      </c>
     </row>
     <row r="9" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
@@ -2256,10 +2272,12 @@
         <v>0</v>
       </c>
       <c r="X9" s="15">
+        <v>10</v>
+      </c>
+      <c r="Y9" s="15">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="Y9" s="15"/>
+        <v>90</v>
+      </c>
     </row>
     <row r="10" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
@@ -2332,10 +2350,12 @@
         <v>15</v>
       </c>
       <c r="X10" s="15">
+        <v>10</v>
+      </c>
+      <c r="Y10" s="15">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="Y10" s="15"/>
+        <v>90</v>
+      </c>
     </row>
     <row r="11" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
@@ -2408,10 +2428,12 @@
         <v>15</v>
       </c>
       <c r="X11" s="15">
+        <v>10</v>
+      </c>
+      <c r="Y11" s="15">
         <f t="shared" si="0"/>
-        <v>-120</v>
-      </c>
-      <c r="Y11" s="15"/>
+        <v>-110</v>
+      </c>
     </row>
     <row r="12" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
@@ -2484,10 +2506,12 @@
         <v>15</v>
       </c>
       <c r="X12" s="15">
+        <v>10</v>
+      </c>
+      <c r="Y12" s="15">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="Y12" s="15"/>
+        <v>90</v>
+      </c>
     </row>
     <row r="13" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
@@ -2560,10 +2584,12 @@
         <v>15</v>
       </c>
       <c r="X13" s="15">
+        <v>10</v>
+      </c>
+      <c r="Y13" s="15">
         <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-      <c r="Y13" s="15"/>
+        <v>115</v>
+      </c>
     </row>
     <row r="14" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
@@ -2636,10 +2662,12 @@
         <v>15</v>
       </c>
       <c r="X14" s="15">
+        <v>10</v>
+      </c>
+      <c r="Y14" s="15">
         <f t="shared" si="0"/>
-        <v>-20</v>
-      </c>
-      <c r="Y14" s="15"/>
+        <v>-10</v>
+      </c>
     </row>
     <row r="15" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
@@ -2712,10 +2740,12 @@
         <v>15</v>
       </c>
       <c r="X15" s="15">
+        <v>10</v>
+      </c>
+      <c r="Y15" s="15">
         <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="Y15" s="15"/>
+        <v>65</v>
+      </c>
     </row>
     <row r="16" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
@@ -2788,10 +2818,12 @@
         <v>0</v>
       </c>
       <c r="X16" s="15">
+        <v>10</v>
+      </c>
+      <c r="Y16" s="15">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="Y16" s="15"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="17" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
@@ -2864,10 +2896,12 @@
         <v>15</v>
       </c>
       <c r="X17" s="15">
+        <v>10</v>
+      </c>
+      <c r="Y17" s="15">
         <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="Y17" s="15"/>
+        <v>55</v>
+      </c>
     </row>
     <row r="18" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
@@ -2940,10 +2974,12 @@
         <v>15</v>
       </c>
       <c r="X18" s="15">
+        <v>10</v>
+      </c>
+      <c r="Y18" s="15">
         <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="Y18" s="15"/>
+        <v>140</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:L18">
@@ -2970,7 +3006,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="178" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3190,11 +3226,13 @@
       <c r="H7" s="10">
         <v>10</v>
       </c>
-      <c r="I7" s="10"/>
+      <c r="I7" s="10">
+        <v>10</v>
+      </c>
       <c r="J7" s="10"/>
       <c r="K7" s="12">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3289,8 +3327,12 @@
         <v>13</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
+      <c r="D11" s="10">
+        <v>10</v>
+      </c>
+      <c r="E11" s="10">
+        <v>15</v>
+      </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="12">
@@ -3300,7 +3342,7 @@
       <c r="J11" s="10"/>
       <c r="K11" s="12">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3328,11 +3370,13 @@
       <c r="H12" s="12">
         <v>10</v>
       </c>
-      <c r="I12" s="10"/>
+      <c r="I12" s="10">
+        <v>10</v>
+      </c>
       <c r="J12" s="10"/>
       <c r="K12" s="12">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3381,14 +3425,16 @@
       <c r="E14" s="12">
         <v>15</v>
       </c>
-      <c r="F14" s="10"/>
+      <c r="F14" s="10">
+        <v>15</v>
+      </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="12">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3485,14 +3531,16 @@
       <c r="E18" s="12">
         <v>15</v>
       </c>
-      <c r="F18" s="10"/>
+      <c r="F18" s="10">
+        <v>15</v>
+      </c>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
       <c r="K18" s="12">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
